--- a/database/DataScience_BusinessIntelligence/DSBI_Course_database.xlsx
+++ b/database/DataScience_BusinessIntelligence/DSBI_Course_database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\OneDrive\20110706\TaiGer_Transcript-Program_Comparer\database\DataScience_BusinessIntelligence\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c520cbcd5c1ba828/20110706/TaiGer_Transcript-Program_Comparer/database/DataScience_BusinessIntelligence/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CBA58C2-BB36-4F99-89FB-B970C44299C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{6CBA58C2-BB36-4F99-89FB-B970C44299C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24D3436D-1A16-48BD-BD65-81E487F7B586}"/>
   <bookViews>
-    <workbookView xWindow="-3255" yWindow="-13695" windowWidth="21600" windowHeight="11325" xr2:uid="{4A678F9F-A21C-41A5-9AEE-FA5C928DC178}"/>
+    <workbookView xWindow="21825" yWindow="-16350" windowWidth="29040" windowHeight="15720" xr2:uid="{4A678F9F-A21C-41A5-9AEE-FA5C928DC178}"/>
   </bookViews>
   <sheets>
     <sheet name="All_DSBI_Courses" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="121">
   <si>
     <t>普通物理學(一)</t>
   </si>
@@ -36,15 +36,6 @@
     <t>微積分(一)</t>
   </si>
   <si>
-    <t>電路學(一)</t>
-  </si>
-  <si>
-    <t>電子學(一)</t>
-  </si>
-  <si>
-    <t>電磁學(一)</t>
-  </si>
-  <si>
     <t>離散數學</t>
   </si>
   <si>
@@ -54,21 +45,12 @@
     <t>機率與統計</t>
   </si>
   <si>
-    <t>訊號與系統</t>
-  </si>
-  <si>
     <t>微積分(二)</t>
   </si>
   <si>
-    <t>電子學(二)</t>
-  </si>
-  <si>
     <t>線性代數</t>
   </si>
   <si>
-    <t>電磁學(二)</t>
-  </si>
-  <si>
     <t>向量分析</t>
   </si>
   <si>
@@ -81,33 +63,6 @@
     <t>數值分析</t>
   </si>
   <si>
-    <t>控制系統</t>
-  </si>
-  <si>
-    <t>電路學(二)</t>
-  </si>
-  <si>
-    <t>自動控制(一)</t>
-  </si>
-  <si>
-    <t>自動控制(二)</t>
-  </si>
-  <si>
-    <t>非線性控制系統</t>
-  </si>
-  <si>
-    <t>智慧型控制</t>
-  </si>
-  <si>
-    <t>電子元件與材料</t>
-  </si>
-  <si>
-    <t>電子實驗(一)</t>
-  </si>
-  <si>
-    <t>電子實驗(二)</t>
-  </si>
-  <si>
     <t>普通物理學實驗(二)</t>
   </si>
   <si>
@@ -123,132 +78,12 @@
     <t>所有科目</t>
   </si>
   <si>
-    <t>靜力學</t>
-  </si>
-  <si>
-    <t>動力學</t>
-  </si>
-  <si>
-    <t>熱傳學</t>
-  </si>
-  <si>
-    <t>工程材料</t>
-  </si>
-  <si>
     <t>基礎程式設計一</t>
   </si>
   <si>
     <t>基礎程式設計二</t>
   </si>
   <si>
-    <t>熱力學一</t>
-  </si>
-  <si>
-    <t>熱力學二</t>
-  </si>
-  <si>
-    <t>材料科學一</t>
-  </si>
-  <si>
-    <t>材料科學二</t>
-  </si>
-  <si>
-    <t>材料力學二</t>
-  </si>
-  <si>
-    <t>材料力學一</t>
-  </si>
-  <si>
-    <t>醫學工程材料</t>
-  </si>
-  <si>
-    <t>流體力學一</t>
-  </si>
-  <si>
-    <t>流體力學二</t>
-  </si>
-  <si>
-    <t>熱處理技術</t>
-  </si>
-  <si>
-    <t>機械過程預處理</t>
-  </si>
-  <si>
-    <t>材料結構與物性</t>
-  </si>
-  <si>
-    <t>動態系統分析</t>
-  </si>
-  <si>
-    <t>材料流動與物流</t>
-  </si>
-  <si>
-    <t>輕質結構</t>
-  </si>
-  <si>
-    <t>物流管理</t>
-  </si>
-  <si>
-    <t>塑料工程</t>
-  </si>
-  <si>
-    <t>能源系統</t>
-  </si>
-  <si>
-    <t>普通化學(一)</t>
-  </si>
-  <si>
-    <t>普通化學(二)</t>
-  </si>
-  <si>
-    <t>應用力學</t>
-  </si>
-  <si>
-    <t>材料熱力學</t>
-  </si>
-  <si>
-    <t>有機化學</t>
-  </si>
-  <si>
-    <t>材料物理性質</t>
-  </si>
-  <si>
-    <t>高分子導論</t>
-  </si>
-  <si>
-    <t>結晶與繞射導論</t>
-  </si>
-  <si>
-    <t>材料實驗(一)</t>
-  </si>
-  <si>
-    <t>材料實驗(二)</t>
-  </si>
-  <si>
-    <t>高分子化學</t>
-  </si>
-  <si>
-    <t>高分子物理</t>
-  </si>
-  <si>
-    <t>高分子加工</t>
-  </si>
-  <si>
-    <t>材料分析</t>
-  </si>
-  <si>
-    <t>半導體材料物理</t>
-  </si>
-  <si>
-    <t>固態物理</t>
-  </si>
-  <si>
-    <t>奈米材料導論</t>
-  </si>
-  <si>
-    <t>材料結構與缺陷</t>
-  </si>
-  <si>
     <t>所有科目_英語</t>
   </si>
   <si>
@@ -291,24 +126,9 @@
     <t>Modern physics</t>
   </si>
   <si>
-    <t>Introduction to Computer</t>
-  </si>
-  <si>
-    <t>Computer organization</t>
-  </si>
-  <si>
-    <t>Computer structure</t>
-  </si>
-  <si>
     <t>Software engineering</t>
   </si>
   <si>
-    <t>Database</t>
-  </si>
-  <si>
-    <t>Embedded programming</t>
-  </si>
-  <si>
     <t>Operating system</t>
   </si>
   <si>
@@ -321,218 +141,260 @@
     <t>Object-oriented programming</t>
   </si>
   <si>
-    <t>Automatic control (1)</t>
-  </si>
-  <si>
-    <t>Automatic control (2)</t>
-  </si>
-  <si>
-    <t>Smart control</t>
-  </si>
-  <si>
-    <t>Control System</t>
-  </si>
-  <si>
-    <t>Non-linear control system</t>
-  </si>
-  <si>
-    <t>Electronic Experiment (1)</t>
-  </si>
-  <si>
-    <t>Electronic Experiment (2)</t>
-  </si>
-  <si>
-    <t>Electronics (1)</t>
-  </si>
-  <si>
-    <t>Electronics (2)</t>
-  </si>
-  <si>
-    <t>Electronics (3)</t>
-  </si>
-  <si>
-    <t>Optoelectronics (1)</t>
-  </si>
-  <si>
-    <t>Digital logic</t>
-  </si>
-  <si>
-    <t>Integrated circuit process technology</t>
-  </si>
-  <si>
-    <t>Integrated circuit design</t>
-  </si>
-  <si>
-    <t>Analog integrated circuit design</t>
-  </si>
-  <si>
-    <t>Digital integrated circuit design</t>
-  </si>
-  <si>
     <t>Advanced microwave passive circuit design and analysis</t>
   </si>
   <si>
-    <t>Electrical Circuits (1)</t>
-  </si>
-  <si>
-    <t>Electrical Circuits (2)</t>
-  </si>
-  <si>
-    <t>Signal and system</t>
-  </si>
-  <si>
-    <t>Electromagnetism (1)</t>
-  </si>
-  <si>
-    <t>Electromagnetism (2)</t>
-  </si>
-  <si>
-    <t>High frequency circuit</t>
-  </si>
-  <si>
-    <t>Power system planning and operation</t>
-  </si>
-  <si>
-    <t>Semiconductor laser</t>
-  </si>
-  <si>
-    <t>Semiconductor packaging and trend development</t>
-  </si>
-  <si>
-    <t>Semiconductor manufacture and measurement</t>
-  </si>
-  <si>
-    <t>Component design and model establishment</t>
-  </si>
-  <si>
-    <t>Semiconductor component physics</t>
-  </si>
-  <si>
-    <t>Optoelectronics Physics</t>
-  </si>
-  <si>
-    <t>Communication principle (1)</t>
-  </si>
-  <si>
-    <t>Communication Principle (2)</t>
-  </si>
-  <si>
-    <t>Digital communication</t>
-  </si>
-  <si>
-    <t>Message theory</t>
-  </si>
-  <si>
-    <t>Antenna principle and design</t>
-  </si>
-  <si>
-    <t>Very large Scale integrated circuit (VLSI)</t>
-  </si>
-  <si>
-    <t>Introduction to Renewable Energy</t>
-  </si>
-  <si>
-    <t>Introduction to Power Engineering</t>
-  </si>
-  <si>
-    <t>Introduction to Wireless Networks</t>
-  </si>
-  <si>
-    <t>Computer vision</t>
-  </si>
-  <si>
-    <t>Image processing</t>
-  </si>
-  <si>
-    <t>Internet of Things Technology</t>
-  </si>
-  <si>
-    <t>Cryptography and experiment</t>
-  </si>
-  <si>
-    <t>Green Energy Technology and System</t>
-  </si>
-  <si>
-    <t>Vector analysis</t>
-  </si>
-  <si>
-    <t>Photoelectric sensing technology and application</t>
-  </si>
-  <si>
-    <t>Applied Quantum Mechanics (1)</t>
-  </si>
-  <si>
-    <t>Advanced Renewable Energy Implementation Topic</t>
-  </si>
-  <si>
-    <t>Introduction to Medical Engineering</t>
-  </si>
-  <si>
-    <t>Introduction to Microwave Engineering</t>
-  </si>
-  <si>
-    <t>statics</t>
-  </si>
-  <si>
-    <t>dynamics</t>
-  </si>
-  <si>
-    <t>Thermodynamics</t>
-  </si>
-  <si>
-    <t>Fluid mechanics</t>
-  </si>
-  <si>
-    <t>Heat transfer</t>
-  </si>
-  <si>
-    <t>Mobility</t>
-  </si>
-  <si>
-    <t>Communication network</t>
-  </si>
-  <si>
-    <t>Power Electronics</t>
-  </si>
-  <si>
-    <t>Power Systems</t>
-  </si>
-  <si>
-    <t>Bioimaging</t>
-  </si>
-  <si>
-    <t>Electronic components and materials</t>
-  </si>
-  <si>
-    <t>acoustics</t>
-  </si>
-  <si>
-    <t>mobile communication</t>
-  </si>
-  <si>
-    <t>Data transfer</t>
-  </si>
-  <si>
-    <t>Compiler principle</t>
-  </si>
-  <si>
-    <t>Microsystem manufacturing</t>
-  </si>
-  <si>
-    <t>High frequency system engineering</t>
-  </si>
-  <si>
-    <t>Electric motor</t>
-  </si>
-  <si>
-    <t>Power Electronics Experiment</t>
+    <t>會計學(一)</t>
+  </si>
+  <si>
+    <t>Accounting (I)</t>
+  </si>
+  <si>
+    <t>會計學(二)</t>
+  </si>
+  <si>
+    <t>Accounting (II)</t>
+  </si>
+  <si>
+    <t>財務管理</t>
+  </si>
+  <si>
+    <t>Financial Management</t>
+  </si>
+  <si>
+    <t>行銷管理</t>
+  </si>
+  <si>
+    <t>Marketing Management</t>
+  </si>
+  <si>
+    <t>組織行為學</t>
+  </si>
+  <si>
+    <t>Organizational Behavior</t>
+  </si>
+  <si>
+    <t>作業研究(一)</t>
+  </si>
+  <si>
+    <t>Operations Research (1)</t>
+  </si>
+  <si>
+    <t>作業研究(二)</t>
+  </si>
+  <si>
+    <t>Operation Research (2)</t>
+  </si>
+  <si>
+    <t>商事法</t>
+  </si>
+  <si>
+    <t>Commercial Laws</t>
+  </si>
+  <si>
+    <t>國際貨幣金融</t>
+  </si>
+  <si>
+    <t>International Money and Finance: Theory and Policies</t>
+  </si>
+  <si>
+    <t>經濟學(一)</t>
+  </si>
+  <si>
+    <t>Economics (I)</t>
+  </si>
+  <si>
+    <t>經濟學(二)</t>
+  </si>
+  <si>
+    <t>Economics (II)</t>
+  </si>
+  <si>
+    <t>統計學(一)</t>
+  </si>
+  <si>
+    <t>Statistics (I)</t>
+  </si>
+  <si>
+    <t>統計學(二)</t>
+  </si>
+  <si>
+    <t>Statistics (II)</t>
+  </si>
+  <si>
+    <t>電腦程式語言</t>
+  </si>
+  <si>
+    <t>Computer Programming</t>
+  </si>
+  <si>
+    <t>中等會計學(一)</t>
+  </si>
+  <si>
+    <t>Intermediate Accounting (1)</t>
+  </si>
+  <si>
+    <t>中等會計學(二)</t>
+  </si>
+  <si>
+    <t>Intermediate Accounting(II)</t>
+  </si>
+  <si>
+    <t>中等會計學(三)</t>
+  </si>
+  <si>
+    <t>Intermediate Accounting(III)</t>
+  </si>
+  <si>
+    <t>高等會計學(一)</t>
+  </si>
+  <si>
+    <t>Advanced Accounting(I)</t>
+  </si>
+  <si>
+    <t>高等會計學(二)</t>
+  </si>
+  <si>
+    <t>Advanced Accounting(II)</t>
+  </si>
+  <si>
+    <t>管理學</t>
+  </si>
+  <si>
+    <t>Management</t>
+  </si>
+  <si>
+    <t>策略管理</t>
+  </si>
+  <si>
+    <t>Strategic Management</t>
+  </si>
+  <si>
+    <t>成本與管理會計(一)</t>
+  </si>
+  <si>
+    <t>Cost and Management Accounting (I)</t>
+  </si>
+  <si>
+    <t>成本與管理會計(二)</t>
+  </si>
+  <si>
+    <t>Cost and Management Accounting (II)</t>
+  </si>
+  <si>
+    <t>投資學</t>
+  </si>
+  <si>
+    <t>Investments</t>
+  </si>
+  <si>
+    <t>審計學(一)</t>
+  </si>
+  <si>
+    <t>Auditing(I)</t>
+  </si>
+  <si>
+    <t>審計學(二)</t>
+  </si>
+  <si>
+    <t>Auditing(II)</t>
+  </si>
+  <si>
+    <t>投資組合管理</t>
+  </si>
+  <si>
+    <t>Portfolio Managements</t>
+  </si>
+  <si>
+    <t>財務報表分析</t>
+  </si>
+  <si>
+    <t>Financiel Statement Analysis</t>
+  </si>
+  <si>
+    <t>Commercial Law</t>
+  </si>
+  <si>
+    <t>計量經濟學</t>
+  </si>
+  <si>
+    <t>Econometrics</t>
+  </si>
+  <si>
+    <t>國際資本市場</t>
+  </si>
+  <si>
+    <t>Introduction to International Capital Market</t>
+  </si>
+  <si>
+    <t>總體經濟學</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macroeconomics </t>
+  </si>
+  <si>
+    <t>個體經濟學</t>
+  </si>
+  <si>
+    <t>Microeconomics</t>
+  </si>
+  <si>
+    <t>作業系統</t>
+  </si>
+  <si>
+    <t>working system</t>
+  </si>
+  <si>
+    <t>微算機實驗</t>
+  </si>
+  <si>
+    <t>Microcomputer experiment</t>
+  </si>
+  <si>
+    <t>計算機網路</t>
+  </si>
+  <si>
+    <t>Computer network</t>
+  </si>
+  <si>
+    <t>軟體工程</t>
+  </si>
+  <si>
+    <t>物件導向軟體設計</t>
+  </si>
+  <si>
+    <t>Object-oriented software design</t>
+  </si>
+  <si>
+    <t>程式設計(一)</t>
+  </si>
+  <si>
+    <t>Programming (1)</t>
+  </si>
+  <si>
+    <t>程式設計(二)</t>
+  </si>
+  <si>
+    <t>Programming (2)</t>
+  </si>
+  <si>
+    <t>軟體工程設計</t>
+  </si>
+  <si>
+    <t>Software engineering design</t>
+  </si>
+  <si>
+    <t>資料結構</t>
+  </si>
+  <si>
+    <t>演算法</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -579,31 +441,97 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Linux Libertine G"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
+      <name val="Linux Libertine G"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Linux Libertine G"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD0CECE"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD0CECE"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD0CECE"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD0CECE"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -615,7 +543,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -645,13 +573,38 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -968,10 +921,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C323114-BC5F-49C1-9F53-9EA9AB7CC060}">
-  <dimension ref="A1:W426"/>
+  <dimension ref="A1:W349"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B93"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -983,10 +936,10 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>74</v>
+        <v>16</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -1012,8 +965,8 @@
       <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>75</v>
+      <c r="B2" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -1037,10 +990,10 @@
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>76</v>
+        <v>6</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -1064,10 +1017,10 @@
     </row>
     <row r="4" spans="1:23">
       <c r="A4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>77</v>
+        <v>7</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>22</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -1091,10 +1044,10 @@
     </row>
     <row r="5" spans="1:23" ht="30.6">
       <c r="A5" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>78</v>
+        <v>14</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>23</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -1118,10 +1071,10 @@
     </row>
     <row r="6" spans="1:23" ht="30.6">
       <c r="A6" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>79</v>
+        <v>3</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -1145,10 +1098,10 @@
     </row>
     <row r="7" spans="1:23" ht="30.6">
       <c r="A7" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>80</v>
+        <v>5</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>25</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -1171,10 +1124,10 @@
     </row>
     <row r="8" spans="1:23" ht="30.6">
       <c r="A8" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>81</v>
+        <v>11</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -1197,10 +1150,10 @@
     </row>
     <row r="9" spans="1:23">
       <c r="A9" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>82</v>
+        <v>10</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -1225,8 +1178,8 @@
       <c r="A10" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>83</v>
+      <c r="B10" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -1249,10 +1202,10 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>84</v>
+        <v>9</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -1277,8 +1230,8 @@
       <c r="A12" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>85</v>
+      <c r="B12" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -1301,10 +1254,10 @@
     </row>
     <row r="13" spans="1:23" ht="30.6">
       <c r="A13" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>86</v>
+        <v>12</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -1327,10 +1280,10 @@
     </row>
     <row r="14" spans="1:23">
       <c r="A14" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>87</v>
+        <v>4</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -1353,10 +1306,10 @@
     </row>
     <row r="15" spans="1:23" ht="30.6">
       <c r="A15" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>88</v>
+        <v>13</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>34</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -1377,12 +1330,12 @@
       <c r="V15" s="1"/>
       <c r="W15" s="7"/>
     </row>
-    <row r="16" spans="1:23" ht="30.6">
-      <c r="A16" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>89</v>
+    <row r="16" spans="1:23">
+      <c r="A16" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>35</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -1403,12 +1356,12 @@
       <c r="V16" s="1"/>
       <c r="W16" s="7"/>
     </row>
-    <row r="17" spans="1:23" ht="30.6">
-      <c r="A17" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>90</v>
+    <row r="17" spans="1:23">
+      <c r="A17" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>36</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -1430,11 +1383,11 @@
       <c r="W17" s="7"/>
     </row>
     <row r="18" spans="1:23" ht="30.6">
-      <c r="A18" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>91</v>
+      <c r="A18" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -1452,15 +1405,15 @@
       <c r="S18" s="5"/>
       <c r="T18" s="5"/>
       <c r="U18" s="5"/>
-      <c r="V18" s="1"/>
+      <c r="V18" s="5"/>
       <c r="W18" s="7"/>
     </row>
-    <row r="19" spans="1:23">
-      <c r="A19" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>92</v>
+    <row r="19" spans="1:23" ht="75.599999999999994">
+      <c r="A19" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -1478,15 +1431,15 @@
       <c r="S19" s="5"/>
       <c r="T19" s="5"/>
       <c r="U19" s="5"/>
-      <c r="V19" s="1"/>
+      <c r="V19" s="5"/>
       <c r="W19" s="7"/>
     </row>
-    <row r="20" spans="1:23" ht="30.6">
-      <c r="A20" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>93</v>
+    <row r="20" spans="1:23">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -1504,15 +1457,15 @@
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
       <c r="U20" s="5"/>
-      <c r="V20" s="1"/>
+      <c r="V20" s="5"/>
       <c r="W20" s="7"/>
     </row>
-    <row r="21" spans="1:23" ht="30.6">
-      <c r="A21" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>94</v>
+    <row r="21" spans="1:23">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -1530,15 +1483,15 @@
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
       <c r="U21" s="5"/>
-      <c r="V21" s="1"/>
+      <c r="V21" s="5"/>
       <c r="W21" s="7"/>
     </row>
     <row r="22" spans="1:23">
-      <c r="A22" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>95</v>
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" t="s">
+        <v>44</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -1556,15 +1509,15 @@
       <c r="S22" s="5"/>
       <c r="T22" s="5"/>
       <c r="U22" s="5"/>
-      <c r="V22" s="1"/>
+      <c r="V22" s="5"/>
       <c r="W22" s="7"/>
     </row>
     <row r="23" spans="1:23">
-      <c r="A23" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>96</v>
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -1582,16 +1535,17 @@
       <c r="S23" s="5"/>
       <c r="T23" s="5"/>
       <c r="U23" s="5"/>
-      <c r="V23" s="1"/>
+      <c r="V23" s="5"/>
       <c r="W23" s="7"/>
     </row>
-    <row r="24" spans="1:23" ht="30.6">
-      <c r="A24" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>97</v>
-      </c>
+    <row r="24" spans="1:23">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="H24" s="5"/>
@@ -1611,13 +1565,14 @@
       <c r="V24" s="5"/>
       <c r="W24" s="7"/>
     </row>
-    <row r="25" spans="1:23" ht="30.6">
-      <c r="A25" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>98</v>
-      </c>
+    <row r="25" spans="1:23">
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="H25" s="5"/>
@@ -1637,13 +1592,14 @@
       <c r="V25" s="5"/>
       <c r="W25" s="7"/>
     </row>
-    <row r="26" spans="1:23" ht="30.6">
-      <c r="A26" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>99</v>
-      </c>
+    <row r="26" spans="1:23">
+      <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="H26" s="5"/>
@@ -1660,16 +1616,17 @@
       <c r="S26" s="5"/>
       <c r="T26" s="5"/>
       <c r="U26" s="5"/>
-      <c r="V26" s="1"/>
+      <c r="V26" s="5"/>
       <c r="W26" s="7"/>
     </row>
     <row r="27" spans="1:23">
-      <c r="A27" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>100</v>
-      </c>
+      <c r="A27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="H27" s="5"/>
@@ -1686,16 +1643,17 @@
       <c r="S27" s="5"/>
       <c r="T27" s="5"/>
       <c r="U27" s="5"/>
-      <c r="V27" s="1"/>
+      <c r="V27" s="5"/>
       <c r="W27" s="7"/>
     </row>
     <row r="28" spans="1:23">
-      <c r="A28" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>101</v>
-      </c>
+      <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="H28" s="5"/>
@@ -1712,16 +1670,17 @@
       <c r="S28" s="5"/>
       <c r="T28" s="5"/>
       <c r="U28" s="5"/>
-      <c r="V28" s="1"/>
+      <c r="V28" s="5"/>
       <c r="W28" s="7"/>
     </row>
-    <row r="29" spans="1:23" ht="30.6">
-      <c r="A29" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>102</v>
-      </c>
+    <row r="29" spans="1:23">
+      <c r="A29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="H29" s="5"/>
@@ -1741,13 +1700,14 @@
       <c r="V29" s="1"/>
       <c r="W29" s="7"/>
     </row>
-    <row r="30" spans="1:23" ht="30.6">
-      <c r="A30" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>103</v>
-      </c>
+    <row r="30" spans="1:23">
+      <c r="A30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="H30" s="5"/>
@@ -1767,13 +1727,14 @@
       <c r="V30" s="1"/>
       <c r="W30" s="7"/>
     </row>
-    <row r="31" spans="1:23" ht="30.6">
-      <c r="A31" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>104</v>
-      </c>
+    <row r="31" spans="1:23">
+      <c r="A31" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="H31" s="5"/>
@@ -1790,16 +1751,17 @@
       <c r="S31" s="5"/>
       <c r="T31" s="5"/>
       <c r="U31" s="5"/>
-      <c r="V31" s="1"/>
+      <c r="V31" s="5"/>
       <c r="W31" s="7"/>
     </row>
     <row r="32" spans="1:23">
-      <c r="A32" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>105</v>
-      </c>
+      <c r="A32" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="H32" s="5"/>
@@ -1816,16 +1778,17 @@
       <c r="S32" s="5"/>
       <c r="T32" s="5"/>
       <c r="U32" s="5"/>
-      <c r="V32" s="1"/>
+      <c r="V32" s="5"/>
       <c r="W32" s="7"/>
     </row>
     <row r="33" spans="1:23">
-      <c r="A33" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>106</v>
-      </c>
+      <c r="A33" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="H33" s="5"/>
@@ -1842,16 +1805,17 @@
       <c r="S33" s="5"/>
       <c r="T33" s="5"/>
       <c r="U33" s="5"/>
-      <c r="V33" s="1"/>
+      <c r="V33" s="5"/>
       <c r="W33" s="7"/>
     </row>
     <row r="34" spans="1:23">
-      <c r="A34" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>107</v>
-      </c>
+      <c r="A34" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="H34" s="5"/>
@@ -1868,16 +1832,17 @@
       <c r="S34" s="5"/>
       <c r="T34" s="5"/>
       <c r="U34" s="5"/>
-      <c r="V34" s="1"/>
+      <c r="V34" s="5"/>
       <c r="W34" s="7"/>
     </row>
-    <row r="35" spans="1:23" ht="30.6">
-      <c r="A35" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>108</v>
-      </c>
+    <row r="35" spans="1:23">
+      <c r="A35" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="H35" s="5"/>
@@ -1894,16 +1859,17 @@
       <c r="S35" s="5"/>
       <c r="T35" s="5"/>
       <c r="U35" s="5"/>
-      <c r="V35" s="1"/>
+      <c r="V35" s="5"/>
       <c r="W35" s="7"/>
     </row>
     <row r="36" spans="1:23">
-      <c r="A36" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>109</v>
-      </c>
+      <c r="A36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="H36" s="5"/>
@@ -1923,13 +1889,14 @@
       <c r="V36" s="5"/>
       <c r="W36" s="7"/>
     </row>
-    <row r="37" spans="1:23" ht="45.6">
-      <c r="A37" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>110</v>
-      </c>
+    <row r="37" spans="1:23">
+      <c r="A37" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
       <c r="H37" s="5"/>
@@ -1946,16 +1913,17 @@
       <c r="S37" s="5"/>
       <c r="T37" s="5"/>
       <c r="U37" s="5"/>
-      <c r="V37" s="5"/>
+      <c r="V37" s="1"/>
       <c r="W37" s="7"/>
     </row>
-    <row r="38" spans="1:23" ht="30.6">
-      <c r="A38" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>111</v>
-      </c>
+    <row r="38" spans="1:23">
+      <c r="A38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="H38" s="5"/>
@@ -1972,16 +1940,17 @@
       <c r="S38" s="5"/>
       <c r="T38" s="5"/>
       <c r="U38" s="5"/>
-      <c r="V38" s="5"/>
+      <c r="V38" s="1"/>
       <c r="W38" s="7"/>
     </row>
-    <row r="39" spans="1:23" ht="45.6">
-      <c r="A39" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B39" s="14" t="s">
-        <v>112</v>
-      </c>
+    <row r="39" spans="1:23">
+      <c r="A39" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
       <c r="H39" s="5"/>
@@ -2001,13 +1970,14 @@
       <c r="V39" s="5"/>
       <c r="W39" s="7"/>
     </row>
-    <row r="40" spans="1:23" ht="30.6">
-      <c r="A40" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B40" s="14" t="s">
-        <v>113</v>
-      </c>
+    <row r="40" spans="1:23">
+      <c r="A40" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
       <c r="H40" s="5"/>
@@ -2027,13 +1997,14 @@
       <c r="V40" s="5"/>
       <c r="W40" s="7"/>
     </row>
-    <row r="41" spans="1:23" ht="75.599999999999994">
-      <c r="A41" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B41" s="14" t="s">
-        <v>114</v>
-      </c>
+    <row r="41" spans="1:23">
+      <c r="A41" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
       <c r="H41" s="5"/>
@@ -2053,13 +2024,14 @@
       <c r="V41" s="5"/>
       <c r="W41" s="7"/>
     </row>
-    <row r="42" spans="1:23" ht="30.6">
-      <c r="A42" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B42" s="14" t="s">
-        <v>115</v>
-      </c>
+    <row r="42" spans="1:23">
+      <c r="A42" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
       <c r="H42" s="5"/>
@@ -2076,16 +2048,17 @@
       <c r="S42" s="5"/>
       <c r="T42" s="5"/>
       <c r="U42" s="5"/>
-      <c r="V42" s="1"/>
+      <c r="V42" s="5"/>
       <c r="W42" s="7"/>
     </row>
-    <row r="43" spans="1:23" ht="30.6">
-      <c r="A43" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B43" s="14" t="s">
-        <v>116</v>
-      </c>
+    <row r="43" spans="1:23">
+      <c r="A43" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
       <c r="H43" s="5"/>
@@ -2102,16 +2075,17 @@
       <c r="S43" s="5"/>
       <c r="T43" s="5"/>
       <c r="U43" s="5"/>
-      <c r="V43" s="1"/>
+      <c r="V43" s="5"/>
       <c r="W43" s="7"/>
     </row>
-    <row r="44" spans="1:23" ht="30.6">
-      <c r="A44" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>117</v>
-      </c>
+    <row r="44" spans="1:23">
+      <c r="A44" t="s">
+        <v>87</v>
+      </c>
+      <c r="B44" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
       <c r="H44" s="5"/>
@@ -2128,16 +2102,17 @@
       <c r="S44" s="5"/>
       <c r="T44" s="5"/>
       <c r="U44" s="5"/>
-      <c r="V44" s="1"/>
+      <c r="V44" s="5"/>
       <c r="W44" s="7"/>
     </row>
-    <row r="45" spans="1:23" ht="30.6">
-      <c r="A45" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>118</v>
-      </c>
+    <row r="45" spans="1:23">
+      <c r="A45" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
       <c r="H45" s="5"/>
@@ -2154,16 +2129,17 @@
       <c r="S45" s="5"/>
       <c r="T45" s="5"/>
       <c r="U45" s="5"/>
-      <c r="V45" s="1"/>
+      <c r="V45" s="5"/>
       <c r="W45" s="7"/>
     </row>
-    <row r="46" spans="1:23" ht="30.6">
-      <c r="A46" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>119</v>
-      </c>
+    <row r="46" spans="1:23">
+      <c r="A46" t="s">
+        <v>91</v>
+      </c>
+      <c r="B46" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" s="5"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
       <c r="H46" s="5"/>
@@ -2180,16 +2156,17 @@
       <c r="S46" s="5"/>
       <c r="T46" s="5"/>
       <c r="U46" s="5"/>
-      <c r="V46" s="1"/>
+      <c r="V46" s="5"/>
       <c r="W46" s="7"/>
     </row>
-    <row r="47" spans="1:23" ht="30.6">
-      <c r="A47" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>120</v>
-      </c>
+    <row r="47" spans="1:23">
+      <c r="A47" t="s">
+        <v>93</v>
+      </c>
+      <c r="B47" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" s="5"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
       <c r="H47" s="5"/>
@@ -2209,13 +2186,14 @@
       <c r="V47" s="1"/>
       <c r="W47" s="7"/>
     </row>
-    <row r="48" spans="1:23" ht="45.6">
-      <c r="A48" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>121</v>
-      </c>
+    <row r="48" spans="1:23">
+      <c r="A48" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" t="s">
+        <v>95</v>
+      </c>
+      <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
       <c r="H48" s="5"/>
@@ -2235,13 +2213,14 @@
       <c r="V48" s="1"/>
       <c r="W48" s="7"/>
     </row>
-    <row r="49" spans="1:23" ht="30.6">
-      <c r="A49" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>122</v>
-      </c>
+    <row r="49" spans="1:23">
+      <c r="A49" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
       <c r="H49" s="5"/>
@@ -2261,13 +2240,14 @@
       <c r="V49" s="1"/>
       <c r="W49" s="7"/>
     </row>
-    <row r="50" spans="1:23" ht="60.6">
-      <c r="A50" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>123</v>
-      </c>
+    <row r="50" spans="1:23">
+      <c r="A50" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" t="s">
+        <v>99</v>
+      </c>
+      <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
       <c r="H50" s="5"/>
@@ -2287,13 +2267,14 @@
       <c r="V50" s="1"/>
       <c r="W50" s="7"/>
     </row>
-    <row r="51" spans="1:23" ht="45.6">
-      <c r="A51" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>124</v>
-      </c>
+    <row r="51" spans="1:23">
+      <c r="A51" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" t="s">
+        <v>101</v>
+      </c>
+      <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
       <c r="H51" s="5"/>
@@ -2313,13 +2294,14 @@
       <c r="V51" s="1"/>
       <c r="W51" s="7"/>
     </row>
-    <row r="52" spans="1:23" ht="60.6">
-      <c r="A52" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>125</v>
-      </c>
+    <row r="52" spans="1:23" ht="16.2" thickBot="1">
+      <c r="A52" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" t="s">
+        <v>103</v>
+      </c>
+      <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
       <c r="H52" s="5"/>
@@ -2339,273 +2321,279 @@
       <c r="V52" s="1"/>
       <c r="W52" s="7"/>
     </row>
-    <row r="53" spans="1:23" ht="45.6">
-      <c r="A53" s="12" t="s">
+    <row r="53" spans="1:23" s="16" customFormat="1" ht="16.8" thickBot="1">
+      <c r="A53" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C53" s="12"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="15"/>
+      <c r="K53" s="15"/>
+      <c r="L53" s="15"/>
+      <c r="M53" s="17"/>
+      <c r="N53" s="15"/>
+      <c r="O53" s="15"/>
+      <c r="P53" s="15"/>
+      <c r="Q53" s="15"/>
+      <c r="R53" s="15"/>
+      <c r="S53" s="15"/>
+      <c r="T53" s="15"/>
+      <c r="U53" s="15"/>
+      <c r="V53" s="18"/>
+      <c r="W53" s="19"/>
+    </row>
+    <row r="54" spans="1:23" s="16" customFormat="1" ht="30.6" thickBot="1">
+      <c r="A54" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C54" s="12"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="15"/>
+      <c r="K54" s="15"/>
+      <c r="L54" s="15"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="15"/>
+      <c r="O54" s="15"/>
+      <c r="P54" s="15"/>
+      <c r="Q54" s="15"/>
+      <c r="R54" s="15"/>
+      <c r="S54" s="15"/>
+      <c r="T54" s="15"/>
+      <c r="U54" s="15"/>
+      <c r="V54" s="18"/>
+      <c r="W54" s="19"/>
+    </row>
+    <row r="55" spans="1:23" s="16" customFormat="1" ht="30.6" thickBot="1">
+      <c r="A55" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C55" s="12"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="15"/>
+      <c r="K55" s="15"/>
+      <c r="L55" s="15"/>
+      <c r="M55" s="17"/>
+      <c r="N55" s="15"/>
+      <c r="O55" s="15"/>
+      <c r="P55" s="15"/>
+      <c r="Q55" s="15"/>
+      <c r="R55" s="15"/>
+      <c r="S55" s="15"/>
+      <c r="T55" s="15"/>
+      <c r="U55" s="15"/>
+      <c r="V55" s="18"/>
+      <c r="W55" s="19"/>
+    </row>
+    <row r="56" spans="1:23" s="16" customFormat="1" ht="30.6" thickBot="1">
+      <c r="A56" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C56" s="12"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="15"/>
+      <c r="K56" s="15"/>
+      <c r="L56" s="15"/>
+      <c r="M56" s="17"/>
+      <c r="N56" s="15"/>
+      <c r="O56" s="15"/>
+      <c r="P56" s="15"/>
+      <c r="Q56" s="15"/>
+      <c r="R56" s="15"/>
+      <c r="S56" s="15"/>
+      <c r="T56" s="15"/>
+      <c r="U56" s="15"/>
+      <c r="V56" s="18"/>
+      <c r="W56" s="19"/>
+    </row>
+    <row r="57" spans="1:23" s="16" customFormat="1" ht="30.6" thickBot="1">
+      <c r="A57" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="C57" s="12"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="15"/>
+      <c r="K57" s="15"/>
+      <c r="L57" s="15"/>
+      <c r="M57" s="17"/>
+      <c r="N57" s="15"/>
+      <c r="O57" s="15"/>
+      <c r="P57" s="15"/>
+      <c r="Q57" s="15"/>
+      <c r="R57" s="15"/>
+      <c r="S57" s="15"/>
+      <c r="T57" s="15"/>
+      <c r="U57" s="15"/>
+      <c r="V57" s="15"/>
+      <c r="W57" s="19"/>
+    </row>
+    <row r="58" spans="1:23" s="16" customFormat="1" ht="16.2" thickBot="1">
+      <c r="A58" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C58" s="12"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="18"/>
+      <c r="J58" s="18"/>
+      <c r="K58" s="18"/>
+      <c r="L58" s="15"/>
+      <c r="M58" s="15"/>
+      <c r="N58" s="15"/>
+      <c r="O58" s="18"/>
+      <c r="P58" s="18"/>
+      <c r="Q58" s="18"/>
+      <c r="R58" s="18"/>
+      <c r="S58" s="18"/>
+      <c r="T58" s="18"/>
+      <c r="U58" s="18"/>
+      <c r="V58" s="15"/>
+      <c r="W58" s="15"/>
+    </row>
+    <row r="59" spans="1:23" s="16" customFormat="1" ht="16.2" thickBot="1">
+      <c r="A59" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="C59" s="12"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="18"/>
+      <c r="J59" s="18"/>
+      <c r="K59" s="18"/>
+      <c r="L59" s="15"/>
+      <c r="M59" s="15"/>
+      <c r="N59" s="15"/>
+      <c r="O59" s="15"/>
+      <c r="P59" s="15"/>
+      <c r="Q59" s="15"/>
+      <c r="R59" s="15"/>
+      <c r="S59" s="15"/>
+      <c r="T59" s="15"/>
+      <c r="U59" s="15"/>
+      <c r="V59" s="15"/>
+      <c r="W59" s="15"/>
+    </row>
+    <row r="60" spans="1:23" s="16" customFormat="1" ht="45.6" thickBot="1">
+      <c r="A60" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="B60" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="C60" s="12"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="15"/>
+      <c r="K60" s="15"/>
+      <c r="L60" s="15"/>
+      <c r="M60" s="17"/>
+      <c r="N60" s="15"/>
+      <c r="O60" s="15"/>
+      <c r="P60" s="15"/>
+      <c r="Q60" s="15"/>
+      <c r="R60" s="15"/>
+      <c r="S60" s="15"/>
+      <c r="T60" s="15"/>
+      <c r="U60" s="15"/>
+      <c r="V60" s="15"/>
+      <c r="W60" s="19"/>
+    </row>
+    <row r="61" spans="1:23" s="16" customFormat="1" ht="16.8" thickBot="1">
+      <c r="A61" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B61" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B53" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
-      <c r="L53" s="5"/>
-      <c r="M53" s="6"/>
-      <c r="N53" s="5"/>
-      <c r="O53" s="5"/>
-      <c r="P53" s="5"/>
-      <c r="Q53" s="5"/>
-      <c r="R53" s="5"/>
-      <c r="S53" s="5"/>
-      <c r="T53" s="5"/>
-      <c r="U53" s="5"/>
-      <c r="V53" s="1"/>
-      <c r="W53" s="7"/>
-    </row>
-    <row r="54" spans="1:23" ht="30.6">
-      <c r="A54" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B54" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
-      <c r="K54" s="5"/>
-      <c r="L54" s="5"/>
-      <c r="M54" s="6"/>
-      <c r="N54" s="5"/>
-      <c r="O54" s="5"/>
-      <c r="P54" s="5"/>
-      <c r="Q54" s="5"/>
-      <c r="R54" s="5"/>
-      <c r="S54" s="5"/>
-      <c r="T54" s="5"/>
-      <c r="U54" s="5"/>
-      <c r="V54" s="5"/>
-      <c r="W54" s="7"/>
-    </row>
-    <row r="55" spans="1:23" ht="30.6">
-      <c r="A55" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B55" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5"/>
-      <c r="K55" s="5"/>
-      <c r="L55" s="5"/>
-      <c r="M55" s="6"/>
-      <c r="N55" s="5"/>
-      <c r="O55" s="5"/>
-      <c r="P55" s="5"/>
-      <c r="Q55" s="5"/>
-      <c r="R55" s="5"/>
-      <c r="S55" s="5"/>
-      <c r="T55" s="5"/>
-      <c r="U55" s="5"/>
-      <c r="V55" s="5"/>
-      <c r="W55" s="7"/>
-    </row>
-    <row r="56" spans="1:23" ht="30.6">
-      <c r="A56" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B56" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="5"/>
-      <c r="K56" s="5"/>
-      <c r="L56" s="5"/>
-      <c r="M56" s="6"/>
-      <c r="N56" s="5"/>
-      <c r="O56" s="5"/>
-      <c r="P56" s="5"/>
-      <c r="Q56" s="5"/>
-      <c r="R56" s="5"/>
-      <c r="S56" s="5"/>
-      <c r="T56" s="5"/>
-      <c r="U56" s="5"/>
-      <c r="V56" s="5"/>
-      <c r="W56" s="7"/>
-    </row>
-    <row r="57" spans="1:23" ht="30.6">
-      <c r="A57" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B57" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="5"/>
-      <c r="K57" s="5"/>
-      <c r="L57" s="5"/>
-      <c r="M57" s="6"/>
-      <c r="N57" s="5"/>
-      <c r="O57" s="5"/>
-      <c r="P57" s="5"/>
-      <c r="Q57" s="5"/>
-      <c r="R57" s="5"/>
-      <c r="S57" s="5"/>
-      <c r="T57" s="5"/>
-      <c r="U57" s="5"/>
-      <c r="V57" s="5"/>
-      <c r="W57" s="7"/>
-    </row>
-    <row r="58" spans="1:23">
-      <c r="A58" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B58" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="5"/>
-      <c r="K58" s="5"/>
-      <c r="L58" s="5"/>
-      <c r="M58" s="6"/>
-      <c r="N58" s="5"/>
-      <c r="O58" s="5"/>
-      <c r="P58" s="5"/>
-      <c r="Q58" s="5"/>
-      <c r="R58" s="5"/>
-      <c r="S58" s="5"/>
-      <c r="T58" s="5"/>
-      <c r="U58" s="5"/>
-      <c r="V58" s="5"/>
-      <c r="W58" s="7"/>
-    </row>
-    <row r="59" spans="1:23" ht="30.6">
-      <c r="A59" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B59" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="5"/>
-      <c r="K59" s="5"/>
-      <c r="L59" s="5"/>
-      <c r="M59" s="6"/>
-      <c r="N59" s="5"/>
-      <c r="O59" s="5"/>
-      <c r="P59" s="5"/>
-      <c r="Q59" s="5"/>
-      <c r="R59" s="5"/>
-      <c r="S59" s="5"/>
-      <c r="T59" s="5"/>
-      <c r="U59" s="5"/>
-      <c r="V59" s="5"/>
-      <c r="W59" s="7"/>
-    </row>
-    <row r="60" spans="1:23" ht="45.6">
-      <c r="A60" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B60" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
-      <c r="J60" s="5"/>
-      <c r="K60" s="5"/>
-      <c r="L60" s="5"/>
-      <c r="M60" s="6"/>
-      <c r="N60" s="5"/>
-      <c r="O60" s="5"/>
-      <c r="P60" s="5"/>
-      <c r="Q60" s="5"/>
-      <c r="R60" s="5"/>
-      <c r="S60" s="5"/>
-      <c r="T60" s="5"/>
-      <c r="U60" s="5"/>
-      <c r="V60" s="5"/>
-      <c r="W60" s="7"/>
-    </row>
-    <row r="61" spans="1:23" ht="45.6">
-      <c r="A61" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="B61" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
-      <c r="J61" s="5"/>
-      <c r="K61" s="5"/>
-      <c r="L61" s="5"/>
-      <c r="M61" s="6"/>
-      <c r="N61" s="5"/>
-      <c r="O61" s="5"/>
-      <c r="P61" s="5"/>
-      <c r="Q61" s="5"/>
-      <c r="R61" s="5"/>
-      <c r="S61" s="5"/>
-      <c r="T61" s="5"/>
-      <c r="U61" s="5"/>
-      <c r="V61" s="5"/>
-      <c r="W61" s="7"/>
-    </row>
-    <row r="62" spans="1:23" ht="45.6">
-      <c r="A62" s="12" t="s">
-        <v>72</v>
+      <c r="C61" s="12"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="15"/>
+      <c r="K61" s="15"/>
+      <c r="L61" s="15"/>
+      <c r="M61" s="17"/>
+      <c r="N61" s="15"/>
+      <c r="O61" s="15"/>
+      <c r="P61" s="15"/>
+      <c r="Q61" s="15"/>
+      <c r="R61" s="15"/>
+      <c r="S61" s="15"/>
+      <c r="T61" s="15"/>
+      <c r="U61" s="15"/>
+      <c r="V61" s="18"/>
+      <c r="W61" s="19"/>
+    </row>
+    <row r="62" spans="1:23" s="16" customFormat="1" ht="16.8" thickBot="1">
+      <c r="A62" s="13" t="s">
+        <v>120</v>
       </c>
       <c r="B62" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="5"/>
-      <c r="K62" s="5"/>
-      <c r="L62" s="5"/>
-      <c r="M62" s="6"/>
-      <c r="N62" s="5"/>
-      <c r="O62" s="5"/>
-      <c r="P62" s="5"/>
-      <c r="Q62" s="5"/>
-      <c r="R62" s="5"/>
-      <c r="S62" s="5"/>
-      <c r="T62" s="5"/>
-      <c r="U62" s="5"/>
-      <c r="V62" s="5"/>
-      <c r="W62" s="7"/>
-    </row>
-    <row r="63" spans="1:23" ht="45.6">
-      <c r="A63" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B63" s="14" t="s">
-        <v>136</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C62" s="12"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="15"/>
+      <c r="K62" s="15"/>
+      <c r="L62" s="15"/>
+      <c r="M62" s="17"/>
+      <c r="N62" s="15"/>
+      <c r="O62" s="15"/>
+      <c r="P62" s="15"/>
+      <c r="Q62" s="15"/>
+      <c r="R62" s="15"/>
+      <c r="S62" s="15"/>
+      <c r="T62" s="15"/>
+      <c r="U62" s="15"/>
+      <c r="V62" s="18"/>
+      <c r="W62" s="19"/>
+    </row>
+    <row r="63" spans="1:23">
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
       <c r="H63" s="5"/>
@@ -2622,16 +2610,12 @@
       <c r="S63" s="5"/>
       <c r="T63" s="5"/>
       <c r="U63" s="5"/>
-      <c r="V63" s="5"/>
+      <c r="V63" s="1"/>
       <c r="W63" s="7"/>
     </row>
     <row r="64" spans="1:23">
-      <c r="A64" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B64" s="14" t="s">
-        <v>137</v>
-      </c>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
       <c r="H64" s="5"/>
@@ -2648,16 +2632,12 @@
       <c r="S64" s="5"/>
       <c r="T64" s="5"/>
       <c r="U64" s="5"/>
-      <c r="V64" s="5"/>
+      <c r="V64" s="1"/>
       <c r="W64" s="7"/>
     </row>
-    <row r="65" spans="1:23" ht="30.6">
-      <c r="A65" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B65" s="14" t="s">
-        <v>138</v>
-      </c>
+    <row r="65" spans="2:23">
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
       <c r="H65" s="5"/>
@@ -2674,16 +2654,12 @@
       <c r="S65" s="5"/>
       <c r="T65" s="5"/>
       <c r="U65" s="5"/>
-      <c r="V65" s="5"/>
+      <c r="V65" s="1"/>
       <c r="W65" s="7"/>
     </row>
-    <row r="66" spans="1:23" ht="45.6">
-      <c r="A66" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B66" s="14" t="s">
-        <v>139</v>
-      </c>
+    <row r="66" spans="2:23">
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
       <c r="H66" s="5"/>
@@ -2700,16 +2676,12 @@
       <c r="S66" s="5"/>
       <c r="T66" s="5"/>
       <c r="U66" s="5"/>
-      <c r="V66" s="5"/>
+      <c r="V66" s="1"/>
       <c r="W66" s="7"/>
     </row>
-    <row r="67" spans="1:23" ht="30.6">
-      <c r="A67" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B67" s="14" t="s">
-        <v>140</v>
-      </c>
+    <row r="67" spans="2:23">
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
       <c r="H67" s="5"/>
@@ -2726,16 +2698,12 @@
       <c r="S67" s="5"/>
       <c r="T67" s="5"/>
       <c r="U67" s="5"/>
-      <c r="V67" s="5"/>
+      <c r="V67" s="1"/>
       <c r="W67" s="7"/>
     </row>
-    <row r="68" spans="1:23" ht="45.6">
-      <c r="A68" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B68" s="14" t="s">
-        <v>141</v>
-      </c>
+    <row r="68" spans="2:23">
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
       <c r="H68" s="5"/>
@@ -2755,13 +2723,9 @@
       <c r="V68" s="5"/>
       <c r="W68" s="7"/>
     </row>
-    <row r="69" spans="1:23">
-      <c r="A69" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B69" s="14" t="s">
-        <v>142</v>
-      </c>
+    <row r="69" spans="2:23">
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
       <c r="H69" s="5"/>
@@ -2781,13 +2745,9 @@
       <c r="V69" s="5"/>
       <c r="W69" s="7"/>
     </row>
-    <row r="70" spans="1:23" ht="60.6">
-      <c r="A70" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B70" s="14" t="s">
-        <v>143</v>
-      </c>
+    <row r="70" spans="2:23">
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
       <c r="H70" s="5"/>
@@ -2804,16 +2764,12 @@
       <c r="S70" s="5"/>
       <c r="T70" s="5"/>
       <c r="U70" s="5"/>
-      <c r="V70" s="5"/>
+      <c r="V70" s="1"/>
       <c r="W70" s="7"/>
     </row>
-    <row r="71" spans="1:23" ht="30.6">
-      <c r="A71" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B71" s="14" t="s">
-        <v>144</v>
-      </c>
+    <row r="71" spans="2:23">
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
       <c r="H71" s="5"/>
@@ -2833,13 +2789,9 @@
       <c r="V71" s="5"/>
       <c r="W71" s="7"/>
     </row>
-    <row r="72" spans="1:23" ht="75.599999999999994">
-      <c r="A72" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B72" s="14" t="s">
-        <v>145</v>
-      </c>
+    <row r="72" spans="2:23">
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
       <c r="H72" s="5"/>
@@ -2859,13 +2811,9 @@
       <c r="V72" s="5"/>
       <c r="W72" s="7"/>
     </row>
-    <row r="73" spans="1:23" ht="45.6">
-      <c r="A73" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B73" s="14" t="s">
-        <v>146</v>
-      </c>
+    <row r="73" spans="2:23">
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
       <c r="H73" s="5"/>
@@ -2885,13 +2833,9 @@
       <c r="V73" s="5"/>
       <c r="W73" s="7"/>
     </row>
-    <row r="74" spans="1:23" ht="45.6">
-      <c r="A74" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B74" s="14" t="s">
-        <v>147</v>
-      </c>
+    <row r="74" spans="2:23">
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
       <c r="H74" s="5"/>
@@ -2908,13 +2852,12 @@
       <c r="S74" s="5"/>
       <c r="T74" s="5"/>
       <c r="U74" s="5"/>
-      <c r="V74" s="5"/>
+      <c r="V74" s="1"/>
       <c r="W74" s="7"/>
     </row>
-    <row r="75" spans="1:23">
-      <c r="B75" s="14" t="s">
-        <v>148</v>
-      </c>
+    <row r="75" spans="2:23">
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
       <c r="H75" s="5"/>
@@ -2931,13 +2874,12 @@
       <c r="S75" s="5"/>
       <c r="T75" s="5"/>
       <c r="U75" s="5"/>
-      <c r="V75" s="5"/>
+      <c r="V75" s="1"/>
       <c r="W75" s="7"/>
     </row>
-    <row r="76" spans="1:23">
-      <c r="B76" s="14" t="s">
-        <v>149</v>
-      </c>
+    <row r="76" spans="2:23">
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
       <c r="H76" s="5"/>
@@ -2954,13 +2896,12 @@
       <c r="S76" s="5"/>
       <c r="T76" s="5"/>
       <c r="U76" s="5"/>
-      <c r="V76" s="1"/>
+      <c r="V76" s="5"/>
       <c r="W76" s="7"/>
     </row>
-    <row r="77" spans="1:23">
-      <c r="B77" s="14" t="s">
-        <v>150</v>
-      </c>
+    <row r="77" spans="2:23">
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
       <c r="H77" s="5"/>
@@ -2977,13 +2918,12 @@
       <c r="S77" s="5"/>
       <c r="T77" s="5"/>
       <c r="U77" s="5"/>
-      <c r="V77" s="1"/>
+      <c r="V77" s="5"/>
       <c r="W77" s="7"/>
     </row>
-    <row r="78" spans="1:23">
-      <c r="B78" s="14" t="s">
-        <v>151</v>
-      </c>
+    <row r="78" spans="2:23">
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
       <c r="H78" s="5"/>
@@ -3000,13 +2940,12 @@
       <c r="S78" s="5"/>
       <c r="T78" s="5"/>
       <c r="U78" s="5"/>
-      <c r="V78" s="1"/>
+      <c r="V78" s="5"/>
       <c r="W78" s="7"/>
     </row>
-    <row r="79" spans="1:23">
-      <c r="B79" s="14" t="s">
-        <v>152</v>
-      </c>
+    <row r="79" spans="2:23">
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
       <c r="H79" s="5"/>
@@ -3023,13 +2962,12 @@
       <c r="S79" s="5"/>
       <c r="T79" s="5"/>
       <c r="U79" s="5"/>
-      <c r="V79" s="1"/>
+      <c r="V79" s="5"/>
       <c r="W79" s="7"/>
     </row>
-    <row r="80" spans="1:23">
-      <c r="B80" s="14" t="s">
-        <v>153</v>
-      </c>
+    <row r="80" spans="2:23">
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
       <c r="H80" s="5"/>
@@ -3049,10 +2987,9 @@
       <c r="V80" s="5"/>
       <c r="W80" s="7"/>
     </row>
-    <row r="81" spans="2:23" ht="30">
-      <c r="B81" s="14" t="s">
-        <v>154</v>
-      </c>
+    <row r="81" spans="2:23">
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
       <c r="H81" s="5"/>
@@ -3072,10 +3009,9 @@
       <c r="V81" s="5"/>
       <c r="W81" s="7"/>
     </row>
-    <row r="82" spans="2:23" ht="30">
-      <c r="B82" s="14" t="s">
-        <v>155</v>
-      </c>
+    <row r="82" spans="2:23">
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
       <c r="H82" s="5"/>
@@ -3092,13 +3028,12 @@
       <c r="S82" s="5"/>
       <c r="T82" s="5"/>
       <c r="U82" s="5"/>
-      <c r="V82" s="1"/>
+      <c r="V82" s="5"/>
       <c r="W82" s="7"/>
     </row>
     <row r="83" spans="2:23">
-      <c r="B83" s="14" t="s">
-        <v>156</v>
-      </c>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
       <c r="H83" s="5"/>
@@ -3115,13 +3050,12 @@
       <c r="S83" s="5"/>
       <c r="T83" s="5"/>
       <c r="U83" s="5"/>
-      <c r="V83" s="1"/>
+      <c r="V83" s="5"/>
       <c r="W83" s="7"/>
     </row>
     <row r="84" spans="2:23">
-      <c r="B84" s="14" t="s">
-        <v>157</v>
-      </c>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
       <c r="H84" s="5"/>
@@ -3138,13 +3072,12 @@
       <c r="S84" s="5"/>
       <c r="T84" s="5"/>
       <c r="U84" s="5"/>
-      <c r="V84" s="1"/>
+      <c r="V84" s="5"/>
       <c r="W84" s="7"/>
     </row>
-    <row r="85" spans="2:23" ht="45">
-      <c r="B85" s="14" t="s">
-        <v>158</v>
-      </c>
+    <row r="85" spans="2:23">
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
       <c r="H85" s="5"/>
@@ -3161,13 +3094,12 @@
       <c r="S85" s="5"/>
       <c r="T85" s="5"/>
       <c r="U85" s="5"/>
-      <c r="V85" s="1"/>
+      <c r="V85" s="5"/>
       <c r="W85" s="7"/>
     </row>
     <row r="86" spans="2:23">
-      <c r="B86" s="14" t="s">
-        <v>159</v>
-      </c>
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
       <c r="H86" s="5"/>
@@ -3184,13 +3116,12 @@
       <c r="S86" s="5"/>
       <c r="T86" s="5"/>
       <c r="U86" s="5"/>
-      <c r="V86" s="1"/>
+      <c r="V86" s="5"/>
       <c r="W86" s="7"/>
     </row>
-    <row r="87" spans="2:23" ht="30">
-      <c r="B87" s="14" t="s">
-        <v>160</v>
-      </c>
+    <row r="87" spans="2:23">
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
       <c r="H87" s="5"/>
@@ -3211,9 +3142,8 @@
       <c r="W87" s="7"/>
     </row>
     <row r="88" spans="2:23">
-      <c r="B88" s="14" t="s">
-        <v>161</v>
-      </c>
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
       <c r="H88" s="5"/>
@@ -3233,10 +3163,9 @@
       <c r="V88" s="5"/>
       <c r="W88" s="7"/>
     </row>
-    <row r="89" spans="2:23" ht="30">
-      <c r="B89" s="14" t="s">
-        <v>162</v>
-      </c>
+    <row r="89" spans="2:23">
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
       <c r="H89" s="5"/>
@@ -3256,10 +3185,9 @@
       <c r="V89" s="5"/>
       <c r="W89" s="7"/>
     </row>
-    <row r="90" spans="2:23" ht="30">
-      <c r="B90" s="14" t="s">
-        <v>163</v>
-      </c>
+    <row r="90" spans="2:23">
+      <c r="B90" s="5"/>
+      <c r="C90" s="5"/>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
       <c r="H90" s="5"/>
@@ -3279,10 +3207,9 @@
       <c r="V90" s="5"/>
       <c r="W90" s="7"/>
     </row>
-    <row r="91" spans="2:23" ht="45">
-      <c r="B91" s="14" t="s">
-        <v>164</v>
-      </c>
+    <row r="91" spans="2:23">
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
       <c r="H91" s="5"/>
@@ -3303,9 +3230,8 @@
       <c r="W91" s="7"/>
     </row>
     <row r="92" spans="2:23">
-      <c r="B92" s="14" t="s">
-        <v>165</v>
-      </c>
+      <c r="B92" s="5"/>
+      <c r="C92" s="5"/>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
       <c r="H92" s="5"/>
@@ -3322,13 +3248,12 @@
       <c r="S92" s="5"/>
       <c r="T92" s="5"/>
       <c r="U92" s="5"/>
-      <c r="V92" s="5"/>
+      <c r="V92" s="1"/>
       <c r="W92" s="7"/>
     </row>
-    <row r="93" spans="2:23" ht="45">
-      <c r="B93" s="14" t="s">
-        <v>166</v>
-      </c>
+    <row r="93" spans="2:23">
+      <c r="B93" s="5"/>
+      <c r="C93" s="5"/>
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
       <c r="H93" s="5"/>
@@ -3345,11 +3270,12 @@
       <c r="S93" s="5"/>
       <c r="T93" s="5"/>
       <c r="U93" s="5"/>
-      <c r="V93" s="5"/>
+      <c r="V93" s="1"/>
       <c r="W93" s="7"/>
     </row>
     <row r="94" spans="2:23">
       <c r="B94" s="5"/>
+      <c r="C94" s="5"/>
       <c r="D94" s="5"/>
       <c r="E94" s="5"/>
       <c r="H94" s="5"/>
@@ -3371,6 +3297,7 @@
     </row>
     <row r="95" spans="2:23">
       <c r="B95" s="5"/>
+      <c r="C95" s="5"/>
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
       <c r="H95" s="5"/>
@@ -3392,6 +3319,7 @@
     </row>
     <row r="96" spans="2:23">
       <c r="B96" s="5"/>
+      <c r="C96" s="5"/>
       <c r="D96" s="5"/>
       <c r="E96" s="5"/>
       <c r="H96" s="5"/>
@@ -3408,11 +3336,12 @@
       <c r="S96" s="5"/>
       <c r="T96" s="5"/>
       <c r="U96" s="5"/>
-      <c r="V96" s="5"/>
+      <c r="V96" s="1"/>
       <c r="W96" s="7"/>
     </row>
-    <row r="97" spans="1:23">
+    <row r="97" spans="2:23">
       <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
       <c r="D97" s="5"/>
       <c r="E97" s="5"/>
       <c r="H97" s="5"/>
@@ -3429,10 +3358,10 @@
       <c r="S97" s="5"/>
       <c r="T97" s="5"/>
       <c r="U97" s="5"/>
-      <c r="V97" s="5"/>
+      <c r="V97" s="1"/>
       <c r="W97" s="7"/>
     </row>
-    <row r="98" spans="1:23">
+    <row r="98" spans="2:23">
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
@@ -3454,7 +3383,7 @@
       <c r="V98" s="5"/>
       <c r="W98" s="7"/>
     </row>
-    <row r="99" spans="1:23">
+    <row r="99" spans="2:23">
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
@@ -3476,7 +3405,7 @@
       <c r="V99" s="5"/>
       <c r="W99" s="7"/>
     </row>
-    <row r="100" spans="1:23">
+    <row r="100" spans="2:23">
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
@@ -3498,7 +3427,7 @@
       <c r="V100" s="5"/>
       <c r="W100" s="7"/>
     </row>
-    <row r="101" spans="1:23">
+    <row r="101" spans="2:23">
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
@@ -3520,7 +3449,7 @@
       <c r="V101" s="5"/>
       <c r="W101" s="7"/>
     </row>
-    <row r="102" spans="1:23">
+    <row r="102" spans="2:23">
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
@@ -3542,7 +3471,7 @@
       <c r="V102" s="5"/>
       <c r="W102" s="7"/>
     </row>
-    <row r="103" spans="1:23">
+    <row r="103" spans="2:23">
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
       <c r="D103" s="5"/>
@@ -3561,10 +3490,10 @@
       <c r="S103" s="5"/>
       <c r="T103" s="5"/>
       <c r="U103" s="5"/>
-      <c r="V103" s="1"/>
+      <c r="V103" s="5"/>
       <c r="W103" s="7"/>
     </row>
-    <row r="104" spans="1:23">
+    <row r="104" spans="2:23">
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
@@ -3583,11 +3512,10 @@
       <c r="S104" s="5"/>
       <c r="T104" s="5"/>
       <c r="U104" s="5"/>
-      <c r="V104" s="1"/>
+      <c r="V104" s="5"/>
       <c r="W104" s="7"/>
     </row>
-    <row r="105" spans="1:23">
-      <c r="A105" s="3"/>
+    <row r="105" spans="2:23">
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
       <c r="D105" s="5"/>
@@ -3609,8 +3537,7 @@
       <c r="V105" s="5"/>
       <c r="W105" s="7"/>
     </row>
-    <row r="106" spans="1:23">
-      <c r="A106" s="3"/>
+    <row r="106" spans="2:23">
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
@@ -3632,8 +3559,7 @@
       <c r="V106" s="5"/>
       <c r="W106" s="7"/>
     </row>
-    <row r="107" spans="1:23">
-      <c r="A107" s="3"/>
+    <row r="107" spans="2:23">
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
       <c r="D107" s="5"/>
@@ -3655,8 +3581,7 @@
       <c r="V107" s="5"/>
       <c r="W107" s="7"/>
     </row>
-    <row r="108" spans="1:23">
-      <c r="A108" s="3"/>
+    <row r="108" spans="2:23">
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
       <c r="D108" s="5"/>
@@ -3678,8 +3603,7 @@
       <c r="V108" s="5"/>
       <c r="W108" s="7"/>
     </row>
-    <row r="109" spans="1:23">
-      <c r="A109" s="3"/>
+    <row r="109" spans="2:23">
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
@@ -3701,8 +3625,7 @@
       <c r="V109" s="5"/>
       <c r="W109" s="7"/>
     </row>
-    <row r="110" spans="1:23">
-      <c r="A110" s="3"/>
+    <row r="110" spans="2:23">
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
@@ -3724,8 +3647,7 @@
       <c r="V110" s="5"/>
       <c r="W110" s="7"/>
     </row>
-    <row r="111" spans="1:23">
-      <c r="A111" s="3"/>
+    <row r="111" spans="2:23">
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
@@ -3744,11 +3666,10 @@
       <c r="S111" s="5"/>
       <c r="T111" s="5"/>
       <c r="U111" s="5"/>
-      <c r="V111" s="1"/>
+      <c r="V111" s="5"/>
       <c r="W111" s="7"/>
     </row>
-    <row r="112" spans="1:23">
-      <c r="A112" s="3"/>
+    <row r="112" spans="2:23">
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
@@ -3767,10 +3688,10 @@
       <c r="S112" s="5"/>
       <c r="T112" s="5"/>
       <c r="U112" s="5"/>
-      <c r="V112" s="1"/>
+      <c r="V112" s="5"/>
       <c r="W112" s="7"/>
     </row>
-    <row r="113" spans="1:23">
+    <row r="113" spans="2:23">
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
@@ -3792,7 +3713,7 @@
       <c r="V113" s="5"/>
       <c r="W113" s="7"/>
     </row>
-    <row r="114" spans="1:23">
+    <row r="114" spans="2:23">
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
@@ -3811,10 +3732,10 @@
       <c r="S114" s="5"/>
       <c r="T114" s="5"/>
       <c r="U114" s="5"/>
-      <c r="V114" s="5"/>
+      <c r="V114" s="1"/>
       <c r="W114" s="7"/>
     </row>
-    <row r="115" spans="1:23">
+    <row r="115" spans="2:23">
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
       <c r="D115" s="5"/>
@@ -3833,10 +3754,10 @@
       <c r="S115" s="5"/>
       <c r="T115" s="5"/>
       <c r="U115" s="5"/>
-      <c r="V115" s="5"/>
+      <c r="V115" s="1"/>
       <c r="W115" s="7"/>
     </row>
-    <row r="116" spans="1:23">
+    <row r="116" spans="2:23">
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
@@ -3855,10 +3776,10 @@
       <c r="S116" s="5"/>
       <c r="T116" s="5"/>
       <c r="U116" s="5"/>
-      <c r="V116" s="5"/>
+      <c r="V116" s="1"/>
       <c r="W116" s="7"/>
     </row>
-    <row r="117" spans="1:23">
+    <row r="117" spans="2:23">
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
@@ -3877,10 +3798,10 @@
       <c r="S117" s="5"/>
       <c r="T117" s="5"/>
       <c r="U117" s="5"/>
-      <c r="V117" s="5"/>
+      <c r="V117" s="1"/>
       <c r="W117" s="7"/>
     </row>
-    <row r="118" spans="1:23">
+    <row r="118" spans="2:23">
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
       <c r="D118" s="5"/>
@@ -3902,7 +3823,7 @@
       <c r="V118" s="5"/>
       <c r="W118" s="7"/>
     </row>
-    <row r="119" spans="1:23">
+    <row r="119" spans="2:23">
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
@@ -3924,7 +3845,7 @@
       <c r="V119" s="5"/>
       <c r="W119" s="7"/>
     </row>
-    <row r="120" spans="1:23">
+    <row r="120" spans="2:23">
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
@@ -3946,7 +3867,7 @@
       <c r="V120" s="5"/>
       <c r="W120" s="7"/>
     </row>
-    <row r="121" spans="1:23">
+    <row r="121" spans="2:23">
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
@@ -3965,10 +3886,10 @@
       <c r="S121" s="5"/>
       <c r="T121" s="5"/>
       <c r="U121" s="5"/>
-      <c r="V121" s="1"/>
+      <c r="V121" s="5"/>
       <c r="W121" s="7"/>
     </row>
-    <row r="122" spans="1:23">
+    <row r="122" spans="2:23">
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
       <c r="D122" s="5"/>
@@ -3990,7 +3911,7 @@
       <c r="V122" s="1"/>
       <c r="W122" s="7"/>
     </row>
-    <row r="123" spans="1:23">
+    <row r="123" spans="2:23">
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
       <c r="D123" s="5"/>
@@ -4012,7 +3933,7 @@
       <c r="V123" s="1"/>
       <c r="W123" s="7"/>
     </row>
-    <row r="124" spans="1:23">
+    <row r="124" spans="2:23">
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
       <c r="D124" s="5"/>
@@ -4031,10 +3952,10 @@
       <c r="S124" s="5"/>
       <c r="T124" s="5"/>
       <c r="U124" s="5"/>
-      <c r="V124" s="1"/>
+      <c r="V124" s="5"/>
       <c r="W124" s="7"/>
     </row>
-    <row r="125" spans="1:23">
+    <row r="125" spans="2:23">
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
@@ -4053,11 +3974,10 @@
       <c r="S125" s="5"/>
       <c r="T125" s="5"/>
       <c r="U125" s="5"/>
-      <c r="V125" s="1"/>
+      <c r="V125" s="5"/>
       <c r="W125" s="7"/>
     </row>
-    <row r="126" spans="1:23">
-      <c r="A126" s="3"/>
+    <row r="126" spans="2:23">
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
@@ -4076,10 +3996,10 @@
       <c r="S126" s="5"/>
       <c r="T126" s="5"/>
       <c r="U126" s="5"/>
-      <c r="V126" s="1"/>
+      <c r="V126" s="5"/>
       <c r="W126" s="7"/>
     </row>
-    <row r="127" spans="1:23">
+    <row r="127" spans="2:23">
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
       <c r="D127" s="5"/>
@@ -4098,10 +4018,10 @@
       <c r="S127" s="5"/>
       <c r="T127" s="5"/>
       <c r="U127" s="5"/>
-      <c r="V127" s="1"/>
+      <c r="V127" s="5"/>
       <c r="W127" s="7"/>
     </row>
-    <row r="128" spans="1:23">
+    <row r="128" spans="2:23">
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
@@ -4120,7 +4040,7 @@
       <c r="S128" s="5"/>
       <c r="T128" s="5"/>
       <c r="U128" s="5"/>
-      <c r="V128" s="1"/>
+      <c r="V128" s="5"/>
       <c r="W128" s="7"/>
     </row>
     <row r="129" spans="1:23">
@@ -4142,7 +4062,7 @@
       <c r="S129" s="5"/>
       <c r="T129" s="5"/>
       <c r="U129" s="5"/>
-      <c r="V129" s="1"/>
+      <c r="V129" s="5"/>
       <c r="W129" s="7"/>
     </row>
     <row r="130" spans="1:23">
@@ -4164,7 +4084,7 @@
       <c r="S130" s="5"/>
       <c r="T130" s="5"/>
       <c r="U130" s="5"/>
-      <c r="V130" s="1"/>
+      <c r="V130" s="5"/>
       <c r="W130" s="7"/>
     </row>
     <row r="131" spans="1:23">
@@ -4212,7 +4132,6 @@
       <c r="W132" s="7"/>
     </row>
     <row r="133" spans="1:23">
-      <c r="A133" s="3"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
       <c r="D133" s="5"/>
@@ -4231,7 +4150,7 @@
       <c r="S133" s="5"/>
       <c r="T133" s="5"/>
       <c r="U133" s="5"/>
-      <c r="V133" s="1"/>
+      <c r="V133" s="5"/>
       <c r="W133" s="7"/>
     </row>
     <row r="134" spans="1:23">
@@ -4253,11 +4172,10 @@
       <c r="S134" s="5"/>
       <c r="T134" s="5"/>
       <c r="U134" s="5"/>
-      <c r="V134" s="5"/>
+      <c r="V134" s="1"/>
       <c r="W134" s="7"/>
     </row>
     <row r="135" spans="1:23">
-      <c r="A135" s="3"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
@@ -4276,10 +4194,11 @@
       <c r="S135" s="5"/>
       <c r="T135" s="5"/>
       <c r="U135" s="5"/>
-      <c r="V135" s="5"/>
+      <c r="V135" s="1"/>
       <c r="W135" s="7"/>
     </row>
     <row r="136" spans="1:23">
+      <c r="A136" s="3"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
@@ -4298,7 +4217,7 @@
       <c r="S136" s="5"/>
       <c r="T136" s="5"/>
       <c r="U136" s="5"/>
-      <c r="V136" s="1"/>
+      <c r="V136" s="5"/>
       <c r="W136" s="7"/>
     </row>
     <row r="137" spans="1:23">
@@ -4320,10 +4239,11 @@
       <c r="S137" s="5"/>
       <c r="T137" s="5"/>
       <c r="U137" s="5"/>
-      <c r="V137" s="1"/>
+      <c r="V137" s="5"/>
       <c r="W137" s="7"/>
     </row>
     <row r="138" spans="1:23">
+      <c r="A138" s="8"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
       <c r="D138" s="5"/>
@@ -4342,10 +4262,11 @@
       <c r="S138" s="5"/>
       <c r="T138" s="5"/>
       <c r="U138" s="5"/>
-      <c r="V138" s="1"/>
+      <c r="V138" s="5"/>
       <c r="W138" s="7"/>
     </row>
     <row r="139" spans="1:23">
+      <c r="A139" s="3"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
@@ -4364,10 +4285,11 @@
       <c r="S139" s="5"/>
       <c r="T139" s="5"/>
       <c r="U139" s="5"/>
-      <c r="V139" s="1"/>
+      <c r="V139" s="5"/>
       <c r="W139" s="7"/>
     </row>
     <row r="140" spans="1:23">
+      <c r="A140" s="3"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
@@ -4430,7 +4352,7 @@
       <c r="S142" s="5"/>
       <c r="T142" s="5"/>
       <c r="U142" s="5"/>
-      <c r="V142" s="1"/>
+      <c r="V142" s="5"/>
       <c r="W142" s="7"/>
     </row>
     <row r="143" spans="1:23">
@@ -4452,7 +4374,7 @@
       <c r="S143" s="5"/>
       <c r="T143" s="5"/>
       <c r="U143" s="5"/>
-      <c r="V143" s="1"/>
+      <c r="V143" s="5"/>
       <c r="W143" s="7"/>
     </row>
     <row r="144" spans="1:23">
@@ -4474,7 +4396,7 @@
       <c r="S144" s="5"/>
       <c r="T144" s="5"/>
       <c r="U144" s="5"/>
-      <c r="V144" s="1"/>
+      <c r="V144" s="5"/>
       <c r="W144" s="7"/>
     </row>
     <row r="145" spans="2:23">
@@ -4540,7 +4462,7 @@
       <c r="S147" s="5"/>
       <c r="T147" s="5"/>
       <c r="U147" s="5"/>
-      <c r="V147" s="1"/>
+      <c r="V147" s="5"/>
       <c r="W147" s="7"/>
     </row>
     <row r="148" spans="2:23">
@@ -4628,7 +4550,7 @@
       <c r="S151" s="5"/>
       <c r="T151" s="5"/>
       <c r="U151" s="5"/>
-      <c r="V151" s="1"/>
+      <c r="V151" s="5"/>
       <c r="W151" s="7"/>
     </row>
     <row r="152" spans="2:23">
@@ -4650,7 +4572,7 @@
       <c r="S152" s="5"/>
       <c r="T152" s="5"/>
       <c r="U152" s="5"/>
-      <c r="V152" s="1"/>
+      <c r="V152" s="5"/>
       <c r="W152" s="7"/>
     </row>
     <row r="153" spans="2:23">
@@ -4829,7 +4751,7 @@
       <c r="V160" s="5"/>
       <c r="W160" s="7"/>
     </row>
-    <row r="161" spans="2:23">
+    <row r="161" spans="1:23">
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
       <c r="D161" s="5"/>
@@ -4851,7 +4773,7 @@
       <c r="V161" s="5"/>
       <c r="W161" s="7"/>
     </row>
-    <row r="162" spans="2:23">
+    <row r="162" spans="1:23">
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
       <c r="D162" s="5"/>
@@ -4873,7 +4795,8 @@
       <c r="V162" s="5"/>
       <c r="W162" s="7"/>
     </row>
-    <row r="163" spans="2:23">
+    <row r="163" spans="1:23">
+      <c r="A163" s="8"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
       <c r="D163" s="5"/>
@@ -4895,7 +4818,7 @@
       <c r="V163" s="5"/>
       <c r="W163" s="7"/>
     </row>
-    <row r="164" spans="2:23">
+    <row r="164" spans="1:23">
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
       <c r="D164" s="5"/>
@@ -4917,7 +4840,8 @@
       <c r="V164" s="5"/>
       <c r="W164" s="7"/>
     </row>
-    <row r="165" spans="2:23">
+    <row r="165" spans="1:23">
+      <c r="A165" s="8"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
       <c r="D165" s="5"/>
@@ -4939,7 +4863,8 @@
       <c r="V165" s="5"/>
       <c r="W165" s="7"/>
     </row>
-    <row r="166" spans="2:23">
+    <row r="166" spans="1:23">
+      <c r="A166" s="3"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
       <c r="D166" s="5"/>
@@ -4961,7 +4886,7 @@
       <c r="V166" s="5"/>
       <c r="W166" s="7"/>
     </row>
-    <row r="167" spans="2:23">
+    <row r="167" spans="1:23">
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
       <c r="D167" s="5"/>
@@ -4983,7 +4908,7 @@
       <c r="V167" s="5"/>
       <c r="W167" s="7"/>
     </row>
-    <row r="168" spans="2:23">
+    <row r="168" spans="1:23">
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
       <c r="D168" s="5"/>
@@ -5002,10 +4927,10 @@
       <c r="S168" s="5"/>
       <c r="T168" s="5"/>
       <c r="U168" s="5"/>
-      <c r="V168" s="5"/>
+      <c r="V168" s="1"/>
       <c r="W168" s="7"/>
     </row>
-    <row r="169" spans="2:23">
+    <row r="169" spans="1:23">
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
       <c r="D169" s="5"/>
@@ -5027,7 +4952,8 @@
       <c r="V169" s="1"/>
       <c r="W169" s="7"/>
     </row>
-    <row r="170" spans="2:23">
+    <row r="170" spans="1:23">
+      <c r="A170" s="8"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
       <c r="D170" s="5"/>
@@ -5046,10 +4972,10 @@
       <c r="S170" s="5"/>
       <c r="T170" s="5"/>
       <c r="U170" s="5"/>
-      <c r="V170" s="1"/>
+      <c r="V170" s="5"/>
       <c r="W170" s="7"/>
     </row>
-    <row r="171" spans="2:23">
+    <row r="171" spans="1:23">
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
       <c r="D171" s="5"/>
@@ -5071,7 +4997,8 @@
       <c r="V171" s="5"/>
       <c r="W171" s="7"/>
     </row>
-    <row r="172" spans="2:23">
+    <row r="172" spans="1:23">
+      <c r="A172" s="8"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
       <c r="D172" s="5"/>
@@ -5090,10 +5017,10 @@
       <c r="S172" s="5"/>
       <c r="T172" s="5"/>
       <c r="U172" s="5"/>
-      <c r="V172" s="5"/>
+      <c r="V172" s="1"/>
       <c r="W172" s="7"/>
     </row>
-    <row r="173" spans="2:23">
+    <row r="173" spans="1:23">
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
       <c r="D173" s="5"/>
@@ -5112,10 +5039,10 @@
       <c r="S173" s="5"/>
       <c r="T173" s="5"/>
       <c r="U173" s="5"/>
-      <c r="V173" s="1"/>
+      <c r="V173" s="5"/>
       <c r="W173" s="7"/>
     </row>
-    <row r="174" spans="2:23">
+    <row r="174" spans="1:23">
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
       <c r="D174" s="5"/>
@@ -5134,10 +5061,10 @@
       <c r="S174" s="5"/>
       <c r="T174" s="5"/>
       <c r="U174" s="5"/>
-      <c r="V174" s="1"/>
+      <c r="V174" s="5"/>
       <c r="W174" s="7"/>
     </row>
-    <row r="175" spans="2:23">
+    <row r="175" spans="1:23">
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
       <c r="D175" s="5"/>
@@ -5156,10 +5083,10 @@
       <c r="S175" s="5"/>
       <c r="T175" s="5"/>
       <c r="U175" s="5"/>
-      <c r="V175" s="5"/>
+      <c r="V175" s="1"/>
       <c r="W175" s="7"/>
     </row>
-    <row r="176" spans="2:23">
+    <row r="176" spans="1:23">
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
       <c r="D176" s="5"/>
@@ -5178,7 +5105,7 @@
       <c r="S176" s="5"/>
       <c r="T176" s="5"/>
       <c r="U176" s="5"/>
-      <c r="V176" s="5"/>
+      <c r="V176" s="1"/>
       <c r="W176" s="7"/>
     </row>
     <row r="177" spans="2:23">
@@ -5200,7 +5127,7 @@
       <c r="S177" s="5"/>
       <c r="T177" s="5"/>
       <c r="U177" s="5"/>
-      <c r="V177" s="5"/>
+      <c r="V177" s="1"/>
       <c r="W177" s="7"/>
     </row>
     <row r="178" spans="2:23">
@@ -5222,7 +5149,7 @@
       <c r="S178" s="5"/>
       <c r="T178" s="5"/>
       <c r="U178" s="5"/>
-      <c r="V178" s="5"/>
+      <c r="V178" s="1"/>
       <c r="W178" s="7"/>
     </row>
     <row r="179" spans="2:23">
@@ -5332,7 +5259,7 @@
       <c r="S183" s="5"/>
       <c r="T183" s="5"/>
       <c r="U183" s="5"/>
-      <c r="V183" s="5"/>
+      <c r="V183" s="1"/>
       <c r="W183" s="7"/>
     </row>
     <row r="184" spans="2:23">
@@ -5354,7 +5281,7 @@
       <c r="S184" s="5"/>
       <c r="T184" s="5"/>
       <c r="U184" s="5"/>
-      <c r="V184" s="5"/>
+      <c r="V184" s="1"/>
       <c r="W184" s="7"/>
     </row>
     <row r="185" spans="2:23">
@@ -5508,7 +5435,7 @@
       <c r="S191" s="5"/>
       <c r="T191" s="5"/>
       <c r="U191" s="5"/>
-      <c r="V191" s="1"/>
+      <c r="V191" s="5"/>
       <c r="W191" s="7"/>
     </row>
     <row r="192" spans="2:23">
@@ -5530,7 +5457,7 @@
       <c r="S192" s="5"/>
       <c r="T192" s="5"/>
       <c r="U192" s="5"/>
-      <c r="V192" s="1"/>
+      <c r="V192" s="5"/>
       <c r="W192" s="7"/>
     </row>
     <row r="193" spans="2:23">
@@ -5552,7 +5479,7 @@
       <c r="S193" s="5"/>
       <c r="T193" s="5"/>
       <c r="U193" s="5"/>
-      <c r="V193" s="1"/>
+      <c r="V193" s="5"/>
       <c r="W193" s="7"/>
     </row>
     <row r="194" spans="2:23">
@@ -5574,7 +5501,7 @@
       <c r="S194" s="5"/>
       <c r="T194" s="5"/>
       <c r="U194" s="5"/>
-      <c r="V194" s="1"/>
+      <c r="V194" s="5"/>
       <c r="W194" s="7"/>
     </row>
     <row r="195" spans="2:23">
@@ -5684,7 +5611,7 @@
       <c r="S199" s="5"/>
       <c r="T199" s="5"/>
       <c r="U199" s="5"/>
-      <c r="V199" s="1"/>
+      <c r="V199" s="5"/>
       <c r="W199" s="7"/>
     </row>
     <row r="200" spans="2:23">
@@ -5706,7 +5633,7 @@
       <c r="S200" s="5"/>
       <c r="T200" s="5"/>
       <c r="U200" s="5"/>
-      <c r="V200" s="1"/>
+      <c r="V200" s="5"/>
       <c r="W200" s="7"/>
     </row>
     <row r="201" spans="2:23">
@@ -5885,7 +5812,7 @@
       <c r="V208" s="5"/>
       <c r="W208" s="7"/>
     </row>
-    <row r="209" spans="1:23">
+    <row r="209" spans="2:23">
       <c r="B209" s="5"/>
       <c r="C209" s="5"/>
       <c r="D209" s="5"/>
@@ -5907,7 +5834,7 @@
       <c r="V209" s="5"/>
       <c r="W209" s="7"/>
     </row>
-    <row r="210" spans="1:23">
+    <row r="210" spans="2:23">
       <c r="B210" s="5"/>
       <c r="C210" s="5"/>
       <c r="D210" s="5"/>
@@ -5929,7 +5856,7 @@
       <c r="V210" s="5"/>
       <c r="W210" s="7"/>
     </row>
-    <row r="211" spans="1:23">
+    <row r="211" spans="2:23">
       <c r="B211" s="5"/>
       <c r="C211" s="5"/>
       <c r="D211" s="5"/>
@@ -5951,7 +5878,7 @@
       <c r="V211" s="1"/>
       <c r="W211" s="7"/>
     </row>
-    <row r="212" spans="1:23">
+    <row r="212" spans="2:23">
       <c r="B212" s="5"/>
       <c r="C212" s="5"/>
       <c r="D212" s="5"/>
@@ -5973,8 +5900,7 @@
       <c r="V212" s="1"/>
       <c r="W212" s="7"/>
     </row>
-    <row r="213" spans="1:23">
-      <c r="A213" s="3"/>
+    <row r="213" spans="2:23">
       <c r="B213" s="5"/>
       <c r="C213" s="5"/>
       <c r="D213" s="5"/>
@@ -5996,7 +5922,7 @@
       <c r="V213" s="5"/>
       <c r="W213" s="7"/>
     </row>
-    <row r="214" spans="1:23">
+    <row r="214" spans="2:23">
       <c r="B214" s="5"/>
       <c r="C214" s="5"/>
       <c r="D214" s="5"/>
@@ -6018,8 +5944,7 @@
       <c r="V214" s="5"/>
       <c r="W214" s="7"/>
     </row>
-    <row r="215" spans="1:23">
-      <c r="A215" s="8"/>
+    <row r="215" spans="2:23">
       <c r="B215" s="5"/>
       <c r="C215" s="5"/>
       <c r="D215" s="5"/>
@@ -6038,11 +5963,10 @@
       <c r="S215" s="5"/>
       <c r="T215" s="5"/>
       <c r="U215" s="5"/>
-      <c r="V215" s="5"/>
+      <c r="V215" s="1"/>
       <c r="W215" s="7"/>
     </row>
-    <row r="216" spans="1:23">
-      <c r="A216" s="3"/>
+    <row r="216" spans="2:23">
       <c r="B216" s="5"/>
       <c r="C216" s="5"/>
       <c r="D216" s="5"/>
@@ -6064,8 +5988,7 @@
       <c r="V216" s="5"/>
       <c r="W216" s="7"/>
     </row>
-    <row r="217" spans="1:23">
-      <c r="A217" s="3"/>
+    <row r="217" spans="2:23">
       <c r="B217" s="5"/>
       <c r="C217" s="5"/>
       <c r="D217" s="5"/>
@@ -6084,10 +6007,10 @@
       <c r="S217" s="5"/>
       <c r="T217" s="5"/>
       <c r="U217" s="5"/>
-      <c r="V217" s="1"/>
+      <c r="V217" s="5"/>
       <c r="W217" s="7"/>
     </row>
-    <row r="218" spans="1:23">
+    <row r="218" spans="2:23">
       <c r="B218" s="5"/>
       <c r="C218" s="5"/>
       <c r="D218" s="5"/>
@@ -6106,10 +6029,10 @@
       <c r="S218" s="5"/>
       <c r="T218" s="5"/>
       <c r="U218" s="5"/>
-      <c r="V218" s="1"/>
+      <c r="V218" s="5"/>
       <c r="W218" s="7"/>
     </row>
-    <row r="219" spans="1:23">
+    <row r="219" spans="2:23">
       <c r="B219" s="5"/>
       <c r="C219" s="5"/>
       <c r="D219" s="5"/>
@@ -6131,7 +6054,7 @@
       <c r="V219" s="5"/>
       <c r="W219" s="7"/>
     </row>
-    <row r="220" spans="1:23">
+    <row r="220" spans="2:23">
       <c r="B220" s="5"/>
       <c r="C220" s="5"/>
       <c r="D220" s="5"/>
@@ -6153,7 +6076,7 @@
       <c r="V220" s="5"/>
       <c r="W220" s="7"/>
     </row>
-    <row r="221" spans="1:23">
+    <row r="221" spans="2:23">
       <c r="B221" s="5"/>
       <c r="C221" s="5"/>
       <c r="D221" s="5"/>
@@ -6175,7 +6098,7 @@
       <c r="V221" s="5"/>
       <c r="W221" s="7"/>
     </row>
-    <row r="222" spans="1:23">
+    <row r="222" spans="2:23">
       <c r="B222" s="5"/>
       <c r="C222" s="5"/>
       <c r="D222" s="5"/>
@@ -6197,7 +6120,7 @@
       <c r="V222" s="5"/>
       <c r="W222" s="7"/>
     </row>
-    <row r="223" spans="1:23">
+    <row r="223" spans="2:23">
       <c r="B223" s="5"/>
       <c r="C223" s="5"/>
       <c r="D223" s="5"/>
@@ -6219,7 +6142,7 @@
       <c r="V223" s="5"/>
       <c r="W223" s="7"/>
     </row>
-    <row r="224" spans="1:23">
+    <row r="224" spans="2:23">
       <c r="B224" s="5"/>
       <c r="C224" s="5"/>
       <c r="D224" s="5"/>
@@ -6241,7 +6164,7 @@
       <c r="V224" s="5"/>
       <c r="W224" s="7"/>
     </row>
-    <row r="225" spans="1:23">
+    <row r="225" spans="2:23">
       <c r="B225" s="5"/>
       <c r="C225" s="5"/>
       <c r="D225" s="5"/>
@@ -6263,7 +6186,7 @@
       <c r="V225" s="5"/>
       <c r="W225" s="7"/>
     </row>
-    <row r="226" spans="1:23">
+    <row r="226" spans="2:23">
       <c r="B226" s="5"/>
       <c r="C226" s="5"/>
       <c r="D226" s="5"/>
@@ -6285,7 +6208,7 @@
       <c r="V226" s="5"/>
       <c r="W226" s="7"/>
     </row>
-    <row r="227" spans="1:23">
+    <row r="227" spans="2:23">
       <c r="B227" s="5"/>
       <c r="C227" s="5"/>
       <c r="D227" s="5"/>
@@ -6307,7 +6230,7 @@
       <c r="V227" s="5"/>
       <c r="W227" s="7"/>
     </row>
-    <row r="228" spans="1:23">
+    <row r="228" spans="2:23">
       <c r="B228" s="5"/>
       <c r="C228" s="5"/>
       <c r="D228" s="5"/>
@@ -6329,7 +6252,7 @@
       <c r="V228" s="5"/>
       <c r="W228" s="7"/>
     </row>
-    <row r="229" spans="1:23">
+    <row r="229" spans="2:23">
       <c r="B229" s="5"/>
       <c r="C229" s="5"/>
       <c r="D229" s="5"/>
@@ -6351,7 +6274,7 @@
       <c r="V229" s="5"/>
       <c r="W229" s="7"/>
     </row>
-    <row r="230" spans="1:23">
+    <row r="230" spans="2:23">
       <c r="B230" s="5"/>
       <c r="C230" s="5"/>
       <c r="D230" s="5"/>
@@ -6373,7 +6296,7 @@
       <c r="V230" s="5"/>
       <c r="W230" s="7"/>
     </row>
-    <row r="231" spans="1:23">
+    <row r="231" spans="2:23">
       <c r="B231" s="5"/>
       <c r="C231" s="5"/>
       <c r="D231" s="5"/>
@@ -6395,7 +6318,7 @@
       <c r="V231" s="5"/>
       <c r="W231" s="7"/>
     </row>
-    <row r="232" spans="1:23">
+    <row r="232" spans="2:23">
       <c r="B232" s="5"/>
       <c r="C232" s="5"/>
       <c r="D232" s="5"/>
@@ -6417,7 +6340,7 @@
       <c r="V232" s="5"/>
       <c r="W232" s="7"/>
     </row>
-    <row r="233" spans="1:23">
+    <row r="233" spans="2:23">
       <c r="B233" s="5"/>
       <c r="C233" s="5"/>
       <c r="D233" s="5"/>
@@ -6439,7 +6362,7 @@
       <c r="V233" s="5"/>
       <c r="W233" s="7"/>
     </row>
-    <row r="234" spans="1:23">
+    <row r="234" spans="2:23">
       <c r="B234" s="5"/>
       <c r="C234" s="5"/>
       <c r="D234" s="5"/>
@@ -6461,7 +6384,7 @@
       <c r="V234" s="5"/>
       <c r="W234" s="7"/>
     </row>
-    <row r="235" spans="1:23">
+    <row r="235" spans="2:23">
       <c r="B235" s="5"/>
       <c r="C235" s="5"/>
       <c r="D235" s="5"/>
@@ -6483,7 +6406,7 @@
       <c r="V235" s="5"/>
       <c r="W235" s="7"/>
     </row>
-    <row r="236" spans="1:23">
+    <row r="236" spans="2:23">
       <c r="B236" s="5"/>
       <c r="C236" s="5"/>
       <c r="D236" s="5"/>
@@ -6505,7 +6428,7 @@
       <c r="V236" s="5"/>
       <c r="W236" s="7"/>
     </row>
-    <row r="237" spans="1:23">
+    <row r="237" spans="2:23">
       <c r="B237" s="5"/>
       <c r="C237" s="5"/>
       <c r="D237" s="5"/>
@@ -6527,7 +6450,7 @@
       <c r="V237" s="5"/>
       <c r="W237" s="7"/>
     </row>
-    <row r="238" spans="1:23">
+    <row r="238" spans="2:23">
       <c r="B238" s="5"/>
       <c r="C238" s="5"/>
       <c r="D238" s="5"/>
@@ -6549,7 +6472,7 @@
       <c r="V238" s="5"/>
       <c r="W238" s="7"/>
     </row>
-    <row r="239" spans="1:23">
+    <row r="239" spans="2:23">
       <c r="B239" s="5"/>
       <c r="C239" s="5"/>
       <c r="D239" s="5"/>
@@ -6571,8 +6494,7 @@
       <c r="V239" s="5"/>
       <c r="W239" s="7"/>
     </row>
-    <row r="240" spans="1:23">
-      <c r="A240" s="8"/>
+    <row r="240" spans="2:23">
       <c r="B240" s="5"/>
       <c r="C240" s="5"/>
       <c r="D240" s="5"/>
@@ -6594,7 +6516,7 @@
       <c r="V240" s="5"/>
       <c r="W240" s="7"/>
     </row>
-    <row r="241" spans="1:23">
+    <row r="241" spans="2:23">
       <c r="B241" s="5"/>
       <c r="C241" s="5"/>
       <c r="D241" s="5"/>
@@ -6613,11 +6535,10 @@
       <c r="S241" s="5"/>
       <c r="T241" s="5"/>
       <c r="U241" s="5"/>
-      <c r="V241" s="5"/>
+      <c r="V241" s="1"/>
       <c r="W241" s="7"/>
     </row>
-    <row r="242" spans="1:23">
-      <c r="A242" s="8"/>
+    <row r="242" spans="2:23">
       <c r="B242" s="5"/>
       <c r="C242" s="5"/>
       <c r="D242" s="5"/>
@@ -6636,11 +6557,10 @@
       <c r="S242" s="5"/>
       <c r="T242" s="5"/>
       <c r="U242" s="5"/>
-      <c r="V242" s="5"/>
+      <c r="V242" s="1"/>
       <c r="W242" s="7"/>
     </row>
-    <row r="243" spans="1:23">
-      <c r="A243" s="3"/>
+    <row r="243" spans="2:23">
       <c r="B243" s="5"/>
       <c r="C243" s="5"/>
       <c r="D243" s="5"/>
@@ -6659,10 +6579,10 @@
       <c r="S243" s="5"/>
       <c r="T243" s="5"/>
       <c r="U243" s="5"/>
-      <c r="V243" s="5"/>
+      <c r="V243" s="1"/>
       <c r="W243" s="7"/>
     </row>
-    <row r="244" spans="1:23">
+    <row r="244" spans="2:23">
       <c r="B244" s="5"/>
       <c r="C244" s="5"/>
       <c r="D244" s="5"/>
@@ -6681,10 +6601,10 @@
       <c r="S244" s="5"/>
       <c r="T244" s="5"/>
       <c r="U244" s="5"/>
-      <c r="V244" s="5"/>
+      <c r="V244" s="1"/>
       <c r="W244" s="7"/>
     </row>
-    <row r="245" spans="1:23">
+    <row r="245" spans="2:23">
       <c r="B245" s="5"/>
       <c r="C245" s="5"/>
       <c r="D245" s="5"/>
@@ -6706,7 +6626,7 @@
       <c r="V245" s="1"/>
       <c r="W245" s="7"/>
     </row>
-    <row r="246" spans="1:23">
+    <row r="246" spans="2:23">
       <c r="B246" s="5"/>
       <c r="C246" s="5"/>
       <c r="D246" s="5"/>
@@ -6725,11 +6645,10 @@
       <c r="S246" s="5"/>
       <c r="T246" s="5"/>
       <c r="U246" s="5"/>
-      <c r="V246" s="1"/>
+      <c r="V246" s="5"/>
       <c r="W246" s="7"/>
     </row>
-    <row r="247" spans="1:23">
-      <c r="A247" s="8"/>
+    <row r="247" spans="2:23">
       <c r="B247" s="5"/>
       <c r="C247" s="5"/>
       <c r="D247" s="5"/>
@@ -6751,7 +6670,7 @@
       <c r="V247" s="5"/>
       <c r="W247" s="7"/>
     </row>
-    <row r="248" spans="1:23">
+    <row r="248" spans="2:23">
       <c r="B248" s="5"/>
       <c r="C248" s="5"/>
       <c r="D248" s="5"/>
@@ -6773,8 +6692,7 @@
       <c r="V248" s="5"/>
       <c r="W248" s="7"/>
     </row>
-    <row r="249" spans="1:23">
-      <c r="A249" s="8"/>
+    <row r="249" spans="2:23">
       <c r="B249" s="5"/>
       <c r="C249" s="5"/>
       <c r="D249" s="5"/>
@@ -6793,10 +6711,10 @@
       <c r="S249" s="5"/>
       <c r="T249" s="5"/>
       <c r="U249" s="5"/>
-      <c r="V249" s="1"/>
+      <c r="V249" s="5"/>
       <c r="W249" s="7"/>
     </row>
-    <row r="250" spans="1:23">
+    <row r="250" spans="2:23">
       <c r="B250" s="5"/>
       <c r="C250" s="5"/>
       <c r="D250" s="5"/>
@@ -6815,10 +6733,10 @@
       <c r="S250" s="5"/>
       <c r="T250" s="5"/>
       <c r="U250" s="5"/>
-      <c r="V250" s="5"/>
+      <c r="V250" s="1"/>
       <c r="W250" s="7"/>
     </row>
-    <row r="251" spans="1:23">
+    <row r="251" spans="2:23">
       <c r="B251" s="5"/>
       <c r="C251" s="5"/>
       <c r="D251" s="5"/>
@@ -6837,10 +6755,10 @@
       <c r="S251" s="5"/>
       <c r="T251" s="5"/>
       <c r="U251" s="5"/>
-      <c r="V251" s="5"/>
+      <c r="V251" s="1"/>
       <c r="W251" s="7"/>
     </row>
-    <row r="252" spans="1:23">
+    <row r="252" spans="2:23">
       <c r="B252" s="5"/>
       <c r="C252" s="5"/>
       <c r="D252" s="5"/>
@@ -6859,10 +6777,10 @@
       <c r="S252" s="5"/>
       <c r="T252" s="5"/>
       <c r="U252" s="5"/>
-      <c r="V252" s="1"/>
+      <c r="V252" s="5"/>
       <c r="W252" s="7"/>
     </row>
-    <row r="253" spans="1:23">
+    <row r="253" spans="2:23">
       <c r="B253" s="5"/>
       <c r="C253" s="5"/>
       <c r="D253" s="5"/>
@@ -6881,10 +6799,10 @@
       <c r="S253" s="5"/>
       <c r="T253" s="5"/>
       <c r="U253" s="5"/>
-      <c r="V253" s="1"/>
+      <c r="V253" s="5"/>
       <c r="W253" s="7"/>
     </row>
-    <row r="254" spans="1:23">
+    <row r="254" spans="2:23">
       <c r="B254" s="5"/>
       <c r="C254" s="5"/>
       <c r="D254" s="5"/>
@@ -6906,7 +6824,7 @@
       <c r="V254" s="1"/>
       <c r="W254" s="7"/>
     </row>
-    <row r="255" spans="1:23">
+    <row r="255" spans="2:23">
       <c r="B255" s="5"/>
       <c r="C255" s="5"/>
       <c r="D255" s="5"/>
@@ -6928,7 +6846,7 @@
       <c r="V255" s="1"/>
       <c r="W255" s="7"/>
     </row>
-    <row r="256" spans="1:23">
+    <row r="256" spans="2:23">
       <c r="B256" s="5"/>
       <c r="C256" s="5"/>
       <c r="D256" s="5"/>
@@ -7035,7 +6953,7 @@
       <c r="S260" s="5"/>
       <c r="T260" s="5"/>
       <c r="U260" s="5"/>
-      <c r="V260" s="1"/>
+      <c r="V260" s="5"/>
       <c r="W260" s="7"/>
     </row>
     <row r="261" spans="2:23">
@@ -7057,7 +6975,7 @@
       <c r="S261" s="5"/>
       <c r="T261" s="5"/>
       <c r="U261" s="5"/>
-      <c r="V261" s="1"/>
+      <c r="V261" s="5"/>
       <c r="W261" s="7"/>
     </row>
     <row r="262" spans="2:23">
@@ -7299,7 +7217,7 @@
       <c r="S272" s="5"/>
       <c r="T272" s="5"/>
       <c r="U272" s="5"/>
-      <c r="V272" s="5"/>
+      <c r="V272" s="1"/>
       <c r="W272" s="7"/>
     </row>
     <row r="273" spans="2:23">
@@ -7321,7 +7239,7 @@
       <c r="S273" s="5"/>
       <c r="T273" s="5"/>
       <c r="U273" s="5"/>
-      <c r="V273" s="5"/>
+      <c r="V273" s="1"/>
       <c r="W273" s="7"/>
     </row>
     <row r="274" spans="2:23">
@@ -7475,7 +7393,7 @@
       <c r="S280" s="5"/>
       <c r="T280" s="5"/>
       <c r="U280" s="5"/>
-      <c r="V280" s="5"/>
+      <c r="V280" s="1"/>
       <c r="W280" s="7"/>
     </row>
     <row r="281" spans="2:23">
@@ -7497,7 +7415,7 @@
       <c r="S281" s="5"/>
       <c r="T281" s="5"/>
       <c r="U281" s="5"/>
-      <c r="V281" s="5"/>
+      <c r="V281" s="1"/>
       <c r="W281" s="7"/>
     </row>
     <row r="282" spans="2:23">
@@ -7563,7 +7481,7 @@
       <c r="S284" s="5"/>
       <c r="T284" s="5"/>
       <c r="U284" s="5"/>
-      <c r="V284" s="5"/>
+      <c r="V284" s="1"/>
       <c r="W284" s="7"/>
     </row>
     <row r="285" spans="2:23">
@@ -7651,7 +7569,7 @@
       <c r="S288" s="5"/>
       <c r="T288" s="5"/>
       <c r="U288" s="5"/>
-      <c r="V288" s="1"/>
+      <c r="V288" s="5"/>
       <c r="W288" s="7"/>
     </row>
     <row r="289" spans="2:23">
@@ -7673,7 +7591,7 @@
       <c r="S289" s="5"/>
       <c r="T289" s="5"/>
       <c r="U289" s="5"/>
-      <c r="V289" s="1"/>
+      <c r="V289" s="5"/>
       <c r="W289" s="7"/>
     </row>
     <row r="290" spans="2:23">
@@ -7739,7 +7657,7 @@
       <c r="S292" s="5"/>
       <c r="T292" s="5"/>
       <c r="U292" s="5"/>
-      <c r="V292" s="1"/>
+      <c r="V292" s="5"/>
       <c r="W292" s="7"/>
     </row>
     <row r="293" spans="2:23">
@@ -8047,7 +7965,7 @@
       <c r="S306" s="5"/>
       <c r="T306" s="5"/>
       <c r="U306" s="5"/>
-      <c r="V306" s="5"/>
+      <c r="V306" s="1"/>
       <c r="W306" s="7"/>
     </row>
     <row r="307" spans="2:23">
@@ -8069,7 +7987,7 @@
       <c r="S307" s="5"/>
       <c r="T307" s="5"/>
       <c r="U307" s="5"/>
-      <c r="V307" s="5"/>
+      <c r="V307" s="1"/>
       <c r="W307" s="7"/>
     </row>
     <row r="308" spans="2:23">
@@ -8091,7 +8009,7 @@
       <c r="S308" s="5"/>
       <c r="T308" s="5"/>
       <c r="U308" s="5"/>
-      <c r="V308" s="5"/>
+      <c r="V308" s="1"/>
       <c r="W308" s="7"/>
     </row>
     <row r="309" spans="2:23">
@@ -8113,7 +8031,7 @@
       <c r="S309" s="5"/>
       <c r="T309" s="5"/>
       <c r="U309" s="5"/>
-      <c r="V309" s="5"/>
+      <c r="V309" s="1"/>
       <c r="W309" s="7"/>
     </row>
     <row r="310" spans="2:23">
@@ -8135,7 +8053,7 @@
       <c r="S310" s="5"/>
       <c r="T310" s="5"/>
       <c r="U310" s="5"/>
-      <c r="V310" s="5"/>
+      <c r="V310" s="1"/>
       <c r="W310" s="7"/>
     </row>
     <row r="311" spans="2:23">
@@ -8245,7 +8163,7 @@
       <c r="S315" s="5"/>
       <c r="T315" s="5"/>
       <c r="U315" s="5"/>
-      <c r="V315" s="5"/>
+      <c r="V315" s="1"/>
       <c r="W315" s="7"/>
     </row>
     <row r="316" spans="2:23">
@@ -8267,7 +8185,7 @@
       <c r="S316" s="5"/>
       <c r="T316" s="5"/>
       <c r="U316" s="5"/>
-      <c r="V316" s="5"/>
+      <c r="V316" s="1"/>
       <c r="W316" s="7"/>
     </row>
     <row r="317" spans="2:23">
@@ -8311,7 +8229,7 @@
       <c r="S318" s="5"/>
       <c r="T318" s="5"/>
       <c r="U318" s="5"/>
-      <c r="V318" s="1"/>
+      <c r="V318" s="5"/>
       <c r="W318" s="7"/>
     </row>
     <row r="319" spans="2:23">
@@ -8358,7 +8276,7 @@
       <c r="V320" s="1"/>
       <c r="W320" s="7"/>
     </row>
-    <row r="321" spans="2:23">
+    <row r="321" spans="1:23">
       <c r="B321" s="5"/>
       <c r="C321" s="5"/>
       <c r="D321" s="5"/>
@@ -8377,10 +8295,10 @@
       <c r="S321" s="5"/>
       <c r="T321" s="5"/>
       <c r="U321" s="5"/>
-      <c r="V321" s="1"/>
+      <c r="V321" s="5"/>
       <c r="W321" s="7"/>
     </row>
-    <row r="322" spans="2:23">
+    <row r="322" spans="1:23">
       <c r="B322" s="5"/>
       <c r="C322" s="5"/>
       <c r="D322" s="5"/>
@@ -8399,10 +8317,10 @@
       <c r="S322" s="5"/>
       <c r="T322" s="5"/>
       <c r="U322" s="5"/>
-      <c r="V322" s="1"/>
+      <c r="V322" s="5"/>
       <c r="W322" s="7"/>
     </row>
-    <row r="323" spans="2:23">
+    <row r="323" spans="1:23">
       <c r="B323" s="5"/>
       <c r="C323" s="5"/>
       <c r="D323" s="5"/>
@@ -8424,7 +8342,7 @@
       <c r="V323" s="5"/>
       <c r="W323" s="7"/>
     </row>
-    <row r="324" spans="2:23">
+    <row r="324" spans="1:23">
       <c r="B324" s="5"/>
       <c r="C324" s="5"/>
       <c r="D324" s="5"/>
@@ -8446,7 +8364,7 @@
       <c r="V324" s="5"/>
       <c r="W324" s="7"/>
     </row>
-    <row r="325" spans="2:23">
+    <row r="325" spans="1:23">
       <c r="B325" s="5"/>
       <c r="C325" s="5"/>
       <c r="D325" s="5"/>
@@ -8468,7 +8386,7 @@
       <c r="V325" s="5"/>
       <c r="W325" s="7"/>
     </row>
-    <row r="326" spans="2:23">
+    <row r="326" spans="1:23">
       <c r="B326" s="5"/>
       <c r="C326" s="5"/>
       <c r="D326" s="5"/>
@@ -8490,7 +8408,7 @@
       <c r="V326" s="5"/>
       <c r="W326" s="7"/>
     </row>
-    <row r="327" spans="2:23">
+    <row r="327" spans="1:23">
       <c r="B327" s="5"/>
       <c r="C327" s="5"/>
       <c r="D327" s="5"/>
@@ -8509,10 +8427,10 @@
       <c r="S327" s="5"/>
       <c r="T327" s="5"/>
       <c r="U327" s="5"/>
-      <c r="V327" s="1"/>
+      <c r="V327" s="5"/>
       <c r="W327" s="7"/>
     </row>
-    <row r="328" spans="2:23">
+    <row r="328" spans="1:23">
       <c r="B328" s="5"/>
       <c r="C328" s="5"/>
       <c r="D328" s="5"/>
@@ -8531,10 +8449,10 @@
       <c r="S328" s="5"/>
       <c r="T328" s="5"/>
       <c r="U328" s="5"/>
-      <c r="V328" s="1"/>
+      <c r="V328" s="5"/>
       <c r="W328" s="7"/>
     </row>
-    <row r="329" spans="2:23">
+    <row r="329" spans="1:23">
       <c r="B329" s="5"/>
       <c r="C329" s="5"/>
       <c r="D329" s="5"/>
@@ -8556,7 +8474,7 @@
       <c r="V329" s="5"/>
       <c r="W329" s="7"/>
     </row>
-    <row r="330" spans="2:23">
+    <row r="330" spans="1:23">
       <c r="B330" s="5"/>
       <c r="C330" s="5"/>
       <c r="D330" s="5"/>
@@ -8578,7 +8496,7 @@
       <c r="V330" s="5"/>
       <c r="W330" s="7"/>
     </row>
-    <row r="331" spans="2:23">
+    <row r="331" spans="1:23">
       <c r="B331" s="5"/>
       <c r="C331" s="5"/>
       <c r="D331" s="5"/>
@@ -8597,10 +8515,10 @@
       <c r="S331" s="5"/>
       <c r="T331" s="5"/>
       <c r="U331" s="5"/>
-      <c r="V331" s="1"/>
+      <c r="V331" s="5"/>
       <c r="W331" s="7"/>
     </row>
-    <row r="332" spans="2:23">
+    <row r="332" spans="1:23">
       <c r="B332" s="5"/>
       <c r="C332" s="5"/>
       <c r="D332" s="5"/>
@@ -8619,10 +8537,10 @@
       <c r="S332" s="5"/>
       <c r="T332" s="5"/>
       <c r="U332" s="5"/>
-      <c r="V332" s="1"/>
+      <c r="V332" s="5"/>
       <c r="W332" s="7"/>
     </row>
-    <row r="333" spans="2:23">
+    <row r="333" spans="1:23">
       <c r="B333" s="5"/>
       <c r="C333" s="5"/>
       <c r="D333" s="5"/>
@@ -8644,7 +8562,8 @@
       <c r="V333" s="5"/>
       <c r="W333" s="7"/>
     </row>
-    <row r="334" spans="2:23">
+    <row r="334" spans="1:23">
+      <c r="A334" s="8"/>
       <c r="B334" s="5"/>
       <c r="C334" s="5"/>
       <c r="D334" s="5"/>
@@ -8666,7 +8585,7 @@
       <c r="V334" s="5"/>
       <c r="W334" s="7"/>
     </row>
-    <row r="335" spans="2:23">
+    <row r="335" spans="1:23">
       <c r="B335" s="5"/>
       <c r="C335" s="5"/>
       <c r="D335" s="5"/>
@@ -8688,7 +8607,7 @@
       <c r="V335" s="5"/>
       <c r="W335" s="7"/>
     </row>
-    <row r="336" spans="2:23">
+    <row r="336" spans="1:23">
       <c r="B336" s="5"/>
       <c r="C336" s="5"/>
       <c r="D336" s="5"/>
@@ -8710,7 +8629,7 @@
       <c r="V336" s="5"/>
       <c r="W336" s="7"/>
     </row>
-    <row r="337" spans="2:23">
+    <row r="337" spans="1:23">
       <c r="B337" s="5"/>
       <c r="C337" s="5"/>
       <c r="D337" s="5"/>
@@ -8729,10 +8648,10 @@
       <c r="S337" s="5"/>
       <c r="T337" s="5"/>
       <c r="U337" s="5"/>
-      <c r="V337" s="5"/>
+      <c r="V337" s="1"/>
       <c r="W337" s="7"/>
     </row>
-    <row r="338" spans="2:23">
+    <row r="338" spans="1:23">
       <c r="B338" s="5"/>
       <c r="C338" s="5"/>
       <c r="D338" s="5"/>
@@ -8751,10 +8670,10 @@
       <c r="S338" s="5"/>
       <c r="T338" s="5"/>
       <c r="U338" s="5"/>
-      <c r="V338" s="5"/>
+      <c r="V338" s="1"/>
       <c r="W338" s="7"/>
     </row>
-    <row r="339" spans="2:23">
+    <row r="339" spans="1:23">
       <c r="B339" s="5"/>
       <c r="C339" s="5"/>
       <c r="D339" s="5"/>
@@ -8776,7 +8695,7 @@
       <c r="V339" s="5"/>
       <c r="W339" s="7"/>
     </row>
-    <row r="340" spans="2:23">
+    <row r="340" spans="1:23">
       <c r="B340" s="5"/>
       <c r="C340" s="5"/>
       <c r="D340" s="5"/>
@@ -8798,7 +8717,8 @@
       <c r="V340" s="5"/>
       <c r="W340" s="7"/>
     </row>
-    <row r="341" spans="2:23">
+    <row r="341" spans="1:23">
+      <c r="A341" s="3"/>
       <c r="B341" s="5"/>
       <c r="C341" s="5"/>
       <c r="D341" s="5"/>
@@ -8820,7 +8740,8 @@
       <c r="V341" s="5"/>
       <c r="W341" s="7"/>
     </row>
-    <row r="342" spans="2:23">
+    <row r="342" spans="1:23">
+      <c r="A342" s="8"/>
       <c r="B342" s="5"/>
       <c r="C342" s="5"/>
       <c r="D342" s="5"/>
@@ -8842,7 +8763,7 @@
       <c r="V342" s="5"/>
       <c r="W342" s="7"/>
     </row>
-    <row r="343" spans="2:23">
+    <row r="343" spans="1:23">
       <c r="B343" s="5"/>
       <c r="C343" s="5"/>
       <c r="D343" s="5"/>
@@ -8864,7 +8785,7 @@
       <c r="V343" s="5"/>
       <c r="W343" s="7"/>
     </row>
-    <row r="344" spans="2:23">
+    <row r="344" spans="1:23">
       <c r="B344" s="5"/>
       <c r="C344" s="5"/>
       <c r="D344" s="5"/>
@@ -8886,7 +8807,7 @@
       <c r="V344" s="5"/>
       <c r="W344" s="7"/>
     </row>
-    <row r="345" spans="2:23">
+    <row r="345" spans="1:23">
       <c r="B345" s="5"/>
       <c r="C345" s="5"/>
       <c r="D345" s="5"/>
@@ -8905,10 +8826,10 @@
       <c r="S345" s="5"/>
       <c r="T345" s="5"/>
       <c r="U345" s="5"/>
-      <c r="V345" s="5"/>
+      <c r="V345" s="1"/>
       <c r="W345" s="7"/>
     </row>
-    <row r="346" spans="2:23">
+    <row r="346" spans="1:23">
       <c r="B346" s="5"/>
       <c r="C346" s="5"/>
       <c r="D346" s="5"/>
@@ -8927,10 +8848,10 @@
       <c r="S346" s="5"/>
       <c r="T346" s="5"/>
       <c r="U346" s="5"/>
-      <c r="V346" s="5"/>
+      <c r="V346" s="1"/>
       <c r="W346" s="7"/>
     </row>
-    <row r="347" spans="2:23">
+    <row r="347" spans="1:23">
       <c r="B347" s="5"/>
       <c r="C347" s="5"/>
       <c r="D347" s="5"/>
@@ -8952,7 +8873,7 @@
       <c r="V347" s="5"/>
       <c r="W347" s="7"/>
     </row>
-    <row r="348" spans="2:23">
+    <row r="348" spans="1:23">
       <c r="B348" s="5"/>
       <c r="C348" s="5"/>
       <c r="D348" s="5"/>
@@ -8974,7 +8895,7 @@
       <c r="V348" s="5"/>
       <c r="W348" s="7"/>
     </row>
-    <row r="349" spans="2:23">
+    <row r="349" spans="1:23">
       <c r="B349" s="5"/>
       <c r="C349" s="5"/>
       <c r="D349" s="5"/>
@@ -8996,1703 +8917,6 @@
       <c r="V349" s="1"/>
       <c r="W349" s="7"/>
     </row>
-    <row r="350" spans="2:23">
-      <c r="B350" s="5"/>
-      <c r="C350" s="5"/>
-      <c r="D350" s="5"/>
-      <c r="E350" s="5"/>
-      <c r="H350" s="5"/>
-      <c r="I350" s="5"/>
-      <c r="J350" s="5"/>
-      <c r="K350" s="5"/>
-      <c r="L350" s="5"/>
-      <c r="M350" s="6"/>
-      <c r="N350" s="5"/>
-      <c r="O350" s="5"/>
-      <c r="P350" s="5"/>
-      <c r="Q350" s="5"/>
-      <c r="R350" s="5"/>
-      <c r="S350" s="5"/>
-      <c r="T350" s="5"/>
-      <c r="U350" s="5"/>
-      <c r="V350" s="1"/>
-      <c r="W350" s="7"/>
-    </row>
-    <row r="351" spans="2:23">
-      <c r="B351" s="5"/>
-      <c r="C351" s="5"/>
-      <c r="D351" s="5"/>
-      <c r="E351" s="5"/>
-      <c r="H351" s="5"/>
-      <c r="I351" s="5"/>
-      <c r="J351" s="5"/>
-      <c r="K351" s="5"/>
-      <c r="L351" s="5"/>
-      <c r="M351" s="6"/>
-      <c r="N351" s="5"/>
-      <c r="O351" s="5"/>
-      <c r="P351" s="5"/>
-      <c r="Q351" s="5"/>
-      <c r="R351" s="5"/>
-      <c r="S351" s="5"/>
-      <c r="T351" s="5"/>
-      <c r="U351" s="5"/>
-      <c r="V351" s="5"/>
-      <c r="W351" s="7"/>
-    </row>
-    <row r="352" spans="2:23">
-      <c r="B352" s="5"/>
-      <c r="C352" s="5"/>
-      <c r="D352" s="5"/>
-      <c r="E352" s="5"/>
-      <c r="H352" s="5"/>
-      <c r="I352" s="5"/>
-      <c r="J352" s="5"/>
-      <c r="K352" s="5"/>
-      <c r="L352" s="5"/>
-      <c r="M352" s="6"/>
-      <c r="N352" s="5"/>
-      <c r="O352" s="5"/>
-      <c r="P352" s="5"/>
-      <c r="Q352" s="5"/>
-      <c r="R352" s="5"/>
-      <c r="S352" s="5"/>
-      <c r="T352" s="5"/>
-      <c r="U352" s="5"/>
-      <c r="V352" s="5"/>
-      <c r="W352" s="7"/>
-    </row>
-    <row r="353" spans="2:23">
-      <c r="B353" s="5"/>
-      <c r="C353" s="5"/>
-      <c r="D353" s="5"/>
-      <c r="E353" s="5"/>
-      <c r="H353" s="5"/>
-      <c r="I353" s="5"/>
-      <c r="J353" s="5"/>
-      <c r="K353" s="5"/>
-      <c r="L353" s="5"/>
-      <c r="M353" s="6"/>
-      <c r="N353" s="5"/>
-      <c r="O353" s="5"/>
-      <c r="P353" s="5"/>
-      <c r="Q353" s="5"/>
-      <c r="R353" s="5"/>
-      <c r="S353" s="5"/>
-      <c r="T353" s="5"/>
-      <c r="U353" s="5"/>
-      <c r="V353" s="5"/>
-      <c r="W353" s="7"/>
-    </row>
-    <row r="354" spans="2:23">
-      <c r="B354" s="5"/>
-      <c r="C354" s="5"/>
-      <c r="D354" s="5"/>
-      <c r="E354" s="5"/>
-      <c r="H354" s="5"/>
-      <c r="I354" s="5"/>
-      <c r="J354" s="5"/>
-      <c r="K354" s="5"/>
-      <c r="L354" s="5"/>
-      <c r="M354" s="6"/>
-      <c r="N354" s="5"/>
-      <c r="O354" s="5"/>
-      <c r="P354" s="5"/>
-      <c r="Q354" s="5"/>
-      <c r="R354" s="5"/>
-      <c r="S354" s="5"/>
-      <c r="T354" s="5"/>
-      <c r="U354" s="5"/>
-      <c r="V354" s="5"/>
-      <c r="W354" s="7"/>
-    </row>
-    <row r="355" spans="2:23">
-      <c r="B355" s="5"/>
-      <c r="C355" s="5"/>
-      <c r="D355" s="5"/>
-      <c r="E355" s="5"/>
-      <c r="H355" s="5"/>
-      <c r="I355" s="5"/>
-      <c r="J355" s="5"/>
-      <c r="K355" s="5"/>
-      <c r="L355" s="5"/>
-      <c r="M355" s="6"/>
-      <c r="N355" s="5"/>
-      <c r="O355" s="5"/>
-      <c r="P355" s="5"/>
-      <c r="Q355" s="5"/>
-      <c r="R355" s="5"/>
-      <c r="S355" s="5"/>
-      <c r="T355" s="5"/>
-      <c r="U355" s="5"/>
-      <c r="V355" s="5"/>
-      <c r="W355" s="7"/>
-    </row>
-    <row r="356" spans="2:23">
-      <c r="B356" s="5"/>
-      <c r="C356" s="5"/>
-      <c r="D356" s="5"/>
-      <c r="E356" s="5"/>
-      <c r="H356" s="5"/>
-      <c r="I356" s="5"/>
-      <c r="J356" s="5"/>
-      <c r="K356" s="5"/>
-      <c r="L356" s="5"/>
-      <c r="M356" s="6"/>
-      <c r="N356" s="5"/>
-      <c r="O356" s="5"/>
-      <c r="P356" s="5"/>
-      <c r="Q356" s="5"/>
-      <c r="R356" s="5"/>
-      <c r="S356" s="5"/>
-      <c r="T356" s="5"/>
-      <c r="U356" s="5"/>
-      <c r="V356" s="5"/>
-      <c r="W356" s="7"/>
-    </row>
-    <row r="357" spans="2:23">
-      <c r="B357" s="5"/>
-      <c r="C357" s="5"/>
-      <c r="D357" s="5"/>
-      <c r="E357" s="5"/>
-      <c r="H357" s="5"/>
-      <c r="I357" s="5"/>
-      <c r="J357" s="5"/>
-      <c r="K357" s="5"/>
-      <c r="L357" s="5"/>
-      <c r="M357" s="6"/>
-      <c r="N357" s="5"/>
-      <c r="O357" s="5"/>
-      <c r="P357" s="5"/>
-      <c r="Q357" s="5"/>
-      <c r="R357" s="5"/>
-      <c r="S357" s="5"/>
-      <c r="T357" s="5"/>
-      <c r="U357" s="5"/>
-      <c r="V357" s="1"/>
-      <c r="W357" s="7"/>
-    </row>
-    <row r="358" spans="2:23">
-      <c r="B358" s="5"/>
-      <c r="C358" s="5"/>
-      <c r="D358" s="5"/>
-      <c r="E358" s="5"/>
-      <c r="H358" s="5"/>
-      <c r="I358" s="5"/>
-      <c r="J358" s="5"/>
-      <c r="K358" s="5"/>
-      <c r="L358" s="5"/>
-      <c r="M358" s="6"/>
-      <c r="N358" s="5"/>
-      <c r="O358" s="5"/>
-      <c r="P358" s="5"/>
-      <c r="Q358" s="5"/>
-      <c r="R358" s="5"/>
-      <c r="S358" s="5"/>
-      <c r="T358" s="5"/>
-      <c r="U358" s="5"/>
-      <c r="V358" s="1"/>
-      <c r="W358" s="7"/>
-    </row>
-    <row r="359" spans="2:23">
-      <c r="B359" s="5"/>
-      <c r="C359" s="5"/>
-      <c r="D359" s="5"/>
-      <c r="E359" s="5"/>
-      <c r="H359" s="5"/>
-      <c r="I359" s="5"/>
-      <c r="J359" s="5"/>
-      <c r="K359" s="5"/>
-      <c r="L359" s="5"/>
-      <c r="M359" s="6"/>
-      <c r="N359" s="5"/>
-      <c r="O359" s="5"/>
-      <c r="P359" s="5"/>
-      <c r="Q359" s="5"/>
-      <c r="R359" s="5"/>
-      <c r="S359" s="5"/>
-      <c r="T359" s="5"/>
-      <c r="U359" s="5"/>
-      <c r="V359" s="5"/>
-      <c r="W359" s="7"/>
-    </row>
-    <row r="360" spans="2:23">
-      <c r="B360" s="5"/>
-      <c r="C360" s="5"/>
-      <c r="D360" s="5"/>
-      <c r="E360" s="5"/>
-      <c r="H360" s="5"/>
-      <c r="I360" s="5"/>
-      <c r="J360" s="5"/>
-      <c r="K360" s="5"/>
-      <c r="L360" s="5"/>
-      <c r="M360" s="6"/>
-      <c r="N360" s="5"/>
-      <c r="O360" s="5"/>
-      <c r="P360" s="5"/>
-      <c r="Q360" s="5"/>
-      <c r="R360" s="5"/>
-      <c r="S360" s="5"/>
-      <c r="T360" s="5"/>
-      <c r="U360" s="5"/>
-      <c r="V360" s="5"/>
-      <c r="W360" s="7"/>
-    </row>
-    <row r="361" spans="2:23">
-      <c r="B361" s="5"/>
-      <c r="C361" s="5"/>
-      <c r="D361" s="5"/>
-      <c r="E361" s="5"/>
-      <c r="H361" s="5"/>
-      <c r="I361" s="5"/>
-      <c r="J361" s="5"/>
-      <c r="K361" s="5"/>
-      <c r="L361" s="5"/>
-      <c r="M361" s="6"/>
-      <c r="N361" s="5"/>
-      <c r="O361" s="5"/>
-      <c r="P361" s="5"/>
-      <c r="Q361" s="5"/>
-      <c r="R361" s="5"/>
-      <c r="S361" s="5"/>
-      <c r="T361" s="5"/>
-      <c r="U361" s="5"/>
-      <c r="V361" s="1"/>
-      <c r="W361" s="7"/>
-    </row>
-    <row r="362" spans="2:23">
-      <c r="B362" s="5"/>
-      <c r="C362" s="5"/>
-      <c r="D362" s="5"/>
-      <c r="E362" s="5"/>
-      <c r="H362" s="5"/>
-      <c r="I362" s="5"/>
-      <c r="J362" s="5"/>
-      <c r="K362" s="5"/>
-      <c r="L362" s="5"/>
-      <c r="M362" s="6"/>
-      <c r="N362" s="5"/>
-      <c r="O362" s="5"/>
-      <c r="P362" s="5"/>
-      <c r="Q362" s="5"/>
-      <c r="R362" s="5"/>
-      <c r="S362" s="5"/>
-      <c r="T362" s="5"/>
-      <c r="U362" s="5"/>
-      <c r="V362" s="5"/>
-      <c r="W362" s="7"/>
-    </row>
-    <row r="363" spans="2:23">
-      <c r="B363" s="5"/>
-      <c r="C363" s="5"/>
-      <c r="D363" s="5"/>
-      <c r="E363" s="5"/>
-      <c r="H363" s="5"/>
-      <c r="I363" s="5"/>
-      <c r="J363" s="5"/>
-      <c r="K363" s="5"/>
-      <c r="L363" s="5"/>
-      <c r="M363" s="6"/>
-      <c r="N363" s="5"/>
-      <c r="O363" s="5"/>
-      <c r="P363" s="5"/>
-      <c r="Q363" s="5"/>
-      <c r="R363" s="5"/>
-      <c r="S363" s="5"/>
-      <c r="T363" s="5"/>
-      <c r="U363" s="5"/>
-      <c r="V363" s="5"/>
-      <c r="W363" s="7"/>
-    </row>
-    <row r="364" spans="2:23">
-      <c r="B364" s="5"/>
-      <c r="C364" s="5"/>
-      <c r="D364" s="5"/>
-      <c r="E364" s="5"/>
-      <c r="H364" s="5"/>
-      <c r="I364" s="5"/>
-      <c r="J364" s="5"/>
-      <c r="K364" s="5"/>
-      <c r="L364" s="5"/>
-      <c r="M364" s="6"/>
-      <c r="N364" s="5"/>
-      <c r="O364" s="5"/>
-      <c r="P364" s="5"/>
-      <c r="Q364" s="5"/>
-      <c r="R364" s="5"/>
-      <c r="S364" s="5"/>
-      <c r="T364" s="5"/>
-      <c r="U364" s="5"/>
-      <c r="V364" s="5"/>
-      <c r="W364" s="7"/>
-    </row>
-    <row r="365" spans="2:23">
-      <c r="B365" s="5"/>
-      <c r="C365" s="5"/>
-      <c r="D365" s="5"/>
-      <c r="E365" s="5"/>
-      <c r="H365" s="5"/>
-      <c r="I365" s="5"/>
-      <c r="J365" s="5"/>
-      <c r="K365" s="5"/>
-      <c r="L365" s="5"/>
-      <c r="M365" s="6"/>
-      <c r="N365" s="5"/>
-      <c r="O365" s="5"/>
-      <c r="P365" s="5"/>
-      <c r="Q365" s="5"/>
-      <c r="R365" s="5"/>
-      <c r="S365" s="5"/>
-      <c r="T365" s="5"/>
-      <c r="U365" s="5"/>
-      <c r="V365" s="5"/>
-      <c r="W365" s="7"/>
-    </row>
-    <row r="366" spans="2:23">
-      <c r="B366" s="5"/>
-      <c r="C366" s="5"/>
-      <c r="D366" s="5"/>
-      <c r="E366" s="5"/>
-      <c r="H366" s="5"/>
-      <c r="I366" s="5"/>
-      <c r="J366" s="5"/>
-      <c r="K366" s="5"/>
-      <c r="L366" s="5"/>
-      <c r="M366" s="6"/>
-      <c r="N366" s="5"/>
-      <c r="O366" s="5"/>
-      <c r="P366" s="5"/>
-      <c r="Q366" s="5"/>
-      <c r="R366" s="5"/>
-      <c r="S366" s="5"/>
-      <c r="T366" s="5"/>
-      <c r="U366" s="5"/>
-      <c r="V366" s="5"/>
-      <c r="W366" s="7"/>
-    </row>
-    <row r="367" spans="2:23">
-      <c r="B367" s="5"/>
-      <c r="C367" s="5"/>
-      <c r="D367" s="5"/>
-      <c r="E367" s="5"/>
-      <c r="H367" s="5"/>
-      <c r="I367" s="5"/>
-      <c r="J367" s="5"/>
-      <c r="K367" s="5"/>
-      <c r="L367" s="5"/>
-      <c r="M367" s="6"/>
-      <c r="N367" s="5"/>
-      <c r="O367" s="5"/>
-      <c r="P367" s="5"/>
-      <c r="Q367" s="5"/>
-      <c r="R367" s="5"/>
-      <c r="S367" s="5"/>
-      <c r="T367" s="5"/>
-      <c r="U367" s="5"/>
-      <c r="V367" s="5"/>
-      <c r="W367" s="7"/>
-    </row>
-    <row r="368" spans="2:23">
-      <c r="B368" s="5"/>
-      <c r="C368" s="5"/>
-      <c r="D368" s="5"/>
-      <c r="E368" s="5"/>
-      <c r="H368" s="5"/>
-      <c r="I368" s="5"/>
-      <c r="J368" s="5"/>
-      <c r="K368" s="5"/>
-      <c r="L368" s="5"/>
-      <c r="M368" s="6"/>
-      <c r="N368" s="5"/>
-      <c r="O368" s="5"/>
-      <c r="P368" s="5"/>
-      <c r="Q368" s="5"/>
-      <c r="R368" s="5"/>
-      <c r="S368" s="5"/>
-      <c r="T368" s="5"/>
-      <c r="U368" s="5"/>
-      <c r="V368" s="5"/>
-      <c r="W368" s="7"/>
-    </row>
-    <row r="369" spans="2:23">
-      <c r="B369" s="5"/>
-      <c r="C369" s="5"/>
-      <c r="D369" s="5"/>
-      <c r="E369" s="5"/>
-      <c r="H369" s="5"/>
-      <c r="I369" s="5"/>
-      <c r="J369" s="5"/>
-      <c r="K369" s="5"/>
-      <c r="L369" s="5"/>
-      <c r="M369" s="6"/>
-      <c r="N369" s="5"/>
-      <c r="O369" s="5"/>
-      <c r="P369" s="5"/>
-      <c r="Q369" s="5"/>
-      <c r="R369" s="5"/>
-      <c r="S369" s="5"/>
-      <c r="T369" s="5"/>
-      <c r="U369" s="5"/>
-      <c r="V369" s="5"/>
-      <c r="W369" s="7"/>
-    </row>
-    <row r="370" spans="2:23">
-      <c r="B370" s="5"/>
-      <c r="C370" s="5"/>
-      <c r="D370" s="5"/>
-      <c r="E370" s="5"/>
-      <c r="H370" s="5"/>
-      <c r="I370" s="5"/>
-      <c r="J370" s="5"/>
-      <c r="K370" s="5"/>
-      <c r="L370" s="5"/>
-      <c r="M370" s="6"/>
-      <c r="N370" s="5"/>
-      <c r="O370" s="5"/>
-      <c r="P370" s="5"/>
-      <c r="Q370" s="5"/>
-      <c r="R370" s="5"/>
-      <c r="S370" s="5"/>
-      <c r="T370" s="5"/>
-      <c r="U370" s="5"/>
-      <c r="V370" s="5"/>
-      <c r="W370" s="7"/>
-    </row>
-    <row r="371" spans="2:23">
-      <c r="B371" s="5"/>
-      <c r="C371" s="5"/>
-      <c r="D371" s="5"/>
-      <c r="E371" s="5"/>
-      <c r="H371" s="5"/>
-      <c r="I371" s="5"/>
-      <c r="J371" s="5"/>
-      <c r="K371" s="5"/>
-      <c r="L371" s="5"/>
-      <c r="M371" s="6"/>
-      <c r="N371" s="5"/>
-      <c r="O371" s="5"/>
-      <c r="P371" s="5"/>
-      <c r="Q371" s="5"/>
-      <c r="R371" s="5"/>
-      <c r="S371" s="5"/>
-      <c r="T371" s="5"/>
-      <c r="U371" s="5"/>
-      <c r="V371" s="5"/>
-      <c r="W371" s="7"/>
-    </row>
-    <row r="372" spans="2:23">
-      <c r="B372" s="5"/>
-      <c r="C372" s="5"/>
-      <c r="D372" s="5"/>
-      <c r="E372" s="5"/>
-      <c r="H372" s="5"/>
-      <c r="I372" s="5"/>
-      <c r="J372" s="5"/>
-      <c r="K372" s="5"/>
-      <c r="L372" s="5"/>
-      <c r="M372" s="6"/>
-      <c r="N372" s="5"/>
-      <c r="O372" s="5"/>
-      <c r="P372" s="5"/>
-      <c r="Q372" s="5"/>
-      <c r="R372" s="5"/>
-      <c r="S372" s="5"/>
-      <c r="T372" s="5"/>
-      <c r="U372" s="5"/>
-      <c r="V372" s="5"/>
-      <c r="W372" s="7"/>
-    </row>
-    <row r="373" spans="2:23">
-      <c r="B373" s="5"/>
-      <c r="C373" s="5"/>
-      <c r="D373" s="5"/>
-      <c r="E373" s="5"/>
-      <c r="H373" s="5"/>
-      <c r="I373" s="5"/>
-      <c r="J373" s="5"/>
-      <c r="K373" s="5"/>
-      <c r="L373" s="5"/>
-      <c r="M373" s="6"/>
-      <c r="N373" s="5"/>
-      <c r="O373" s="5"/>
-      <c r="P373" s="5"/>
-      <c r="Q373" s="5"/>
-      <c r="R373" s="5"/>
-      <c r="S373" s="5"/>
-      <c r="T373" s="5"/>
-      <c r="U373" s="5"/>
-      <c r="V373" s="5"/>
-      <c r="W373" s="7"/>
-    </row>
-    <row r="374" spans="2:23">
-      <c r="B374" s="5"/>
-      <c r="C374" s="5"/>
-      <c r="D374" s="5"/>
-      <c r="E374" s="5"/>
-      <c r="H374" s="5"/>
-      <c r="I374" s="5"/>
-      <c r="J374" s="5"/>
-      <c r="K374" s="5"/>
-      <c r="L374" s="5"/>
-      <c r="M374" s="6"/>
-      <c r="N374" s="5"/>
-      <c r="O374" s="5"/>
-      <c r="P374" s="5"/>
-      <c r="Q374" s="5"/>
-      <c r="R374" s="5"/>
-      <c r="S374" s="5"/>
-      <c r="T374" s="5"/>
-      <c r="U374" s="5"/>
-      <c r="V374" s="5"/>
-      <c r="W374" s="7"/>
-    </row>
-    <row r="375" spans="2:23">
-      <c r="B375" s="5"/>
-      <c r="C375" s="5"/>
-      <c r="D375" s="5"/>
-      <c r="E375" s="5"/>
-      <c r="H375" s="5"/>
-      <c r="I375" s="5"/>
-      <c r="J375" s="5"/>
-      <c r="K375" s="5"/>
-      <c r="L375" s="5"/>
-      <c r="M375" s="6"/>
-      <c r="N375" s="5"/>
-      <c r="O375" s="5"/>
-      <c r="P375" s="5"/>
-      <c r="Q375" s="5"/>
-      <c r="R375" s="5"/>
-      <c r="S375" s="5"/>
-      <c r="T375" s="5"/>
-      <c r="U375" s="5"/>
-      <c r="V375" s="5"/>
-      <c r="W375" s="7"/>
-    </row>
-    <row r="376" spans="2:23">
-      <c r="B376" s="5"/>
-      <c r="C376" s="5"/>
-      <c r="D376" s="5"/>
-      <c r="E376" s="5"/>
-      <c r="H376" s="5"/>
-      <c r="I376" s="5"/>
-      <c r="J376" s="5"/>
-      <c r="K376" s="5"/>
-      <c r="L376" s="5"/>
-      <c r="M376" s="6"/>
-      <c r="N376" s="5"/>
-      <c r="O376" s="5"/>
-      <c r="P376" s="5"/>
-      <c r="Q376" s="5"/>
-      <c r="R376" s="5"/>
-      <c r="S376" s="5"/>
-      <c r="T376" s="5"/>
-      <c r="U376" s="5"/>
-      <c r="V376" s="5"/>
-      <c r="W376" s="7"/>
-    </row>
-    <row r="377" spans="2:23">
-      <c r="B377" s="5"/>
-      <c r="C377" s="5"/>
-      <c r="D377" s="5"/>
-      <c r="E377" s="5"/>
-      <c r="H377" s="5"/>
-      <c r="I377" s="5"/>
-      <c r="J377" s="5"/>
-      <c r="K377" s="5"/>
-      <c r="L377" s="5"/>
-      <c r="M377" s="6"/>
-      <c r="N377" s="5"/>
-      <c r="O377" s="5"/>
-      <c r="P377" s="5"/>
-      <c r="Q377" s="5"/>
-      <c r="R377" s="5"/>
-      <c r="S377" s="5"/>
-      <c r="T377" s="5"/>
-      <c r="U377" s="5"/>
-      <c r="V377" s="5"/>
-      <c r="W377" s="7"/>
-    </row>
-    <row r="378" spans="2:23">
-      <c r="B378" s="5"/>
-      <c r="C378" s="5"/>
-      <c r="D378" s="5"/>
-      <c r="E378" s="5"/>
-      <c r="H378" s="5"/>
-      <c r="I378" s="5"/>
-      <c r="J378" s="5"/>
-      <c r="K378" s="5"/>
-      <c r="L378" s="5"/>
-      <c r="M378" s="6"/>
-      <c r="N378" s="5"/>
-      <c r="O378" s="5"/>
-      <c r="P378" s="5"/>
-      <c r="Q378" s="5"/>
-      <c r="R378" s="5"/>
-      <c r="S378" s="5"/>
-      <c r="T378" s="5"/>
-      <c r="U378" s="5"/>
-      <c r="V378" s="5"/>
-      <c r="W378" s="7"/>
-    </row>
-    <row r="379" spans="2:23">
-      <c r="B379" s="5"/>
-      <c r="C379" s="5"/>
-      <c r="D379" s="5"/>
-      <c r="E379" s="5"/>
-      <c r="H379" s="5"/>
-      <c r="I379" s="5"/>
-      <c r="J379" s="5"/>
-      <c r="K379" s="5"/>
-      <c r="L379" s="5"/>
-      <c r="M379" s="6"/>
-      <c r="N379" s="5"/>
-      <c r="O379" s="5"/>
-      <c r="P379" s="5"/>
-      <c r="Q379" s="5"/>
-      <c r="R379" s="5"/>
-      <c r="S379" s="5"/>
-      <c r="T379" s="5"/>
-      <c r="U379" s="5"/>
-      <c r="V379" s="5"/>
-      <c r="W379" s="7"/>
-    </row>
-    <row r="380" spans="2:23">
-      <c r="B380" s="5"/>
-      <c r="C380" s="5"/>
-      <c r="D380" s="5"/>
-      <c r="E380" s="5"/>
-      <c r="H380" s="5"/>
-      <c r="I380" s="5"/>
-      <c r="J380" s="5"/>
-      <c r="K380" s="5"/>
-      <c r="L380" s="5"/>
-      <c r="M380" s="6"/>
-      <c r="N380" s="5"/>
-      <c r="O380" s="5"/>
-      <c r="P380" s="5"/>
-      <c r="Q380" s="5"/>
-      <c r="R380" s="5"/>
-      <c r="S380" s="5"/>
-      <c r="T380" s="5"/>
-      <c r="U380" s="5"/>
-      <c r="V380" s="5"/>
-      <c r="W380" s="7"/>
-    </row>
-    <row r="381" spans="2:23">
-      <c r="B381" s="5"/>
-      <c r="C381" s="5"/>
-      <c r="D381" s="5"/>
-      <c r="E381" s="5"/>
-      <c r="H381" s="5"/>
-      <c r="I381" s="5"/>
-      <c r="J381" s="5"/>
-      <c r="K381" s="5"/>
-      <c r="L381" s="5"/>
-      <c r="M381" s="6"/>
-      <c r="N381" s="5"/>
-      <c r="O381" s="5"/>
-      <c r="P381" s="5"/>
-      <c r="Q381" s="5"/>
-      <c r="R381" s="5"/>
-      <c r="S381" s="5"/>
-      <c r="T381" s="5"/>
-      <c r="U381" s="5"/>
-      <c r="V381" s="5"/>
-      <c r="W381" s="7"/>
-    </row>
-    <row r="382" spans="2:23">
-      <c r="B382" s="5"/>
-      <c r="C382" s="5"/>
-      <c r="D382" s="5"/>
-      <c r="E382" s="5"/>
-      <c r="H382" s="5"/>
-      <c r="I382" s="5"/>
-      <c r="J382" s="5"/>
-      <c r="K382" s="5"/>
-      <c r="L382" s="5"/>
-      <c r="M382" s="6"/>
-      <c r="N382" s="5"/>
-      <c r="O382" s="5"/>
-      <c r="P382" s="5"/>
-      <c r="Q382" s="5"/>
-      <c r="R382" s="5"/>
-      <c r="S382" s="5"/>
-      <c r="T382" s="5"/>
-      <c r="U382" s="5"/>
-      <c r="V382" s="5"/>
-      <c r="W382" s="7"/>
-    </row>
-    <row r="383" spans="2:23">
-      <c r="B383" s="5"/>
-      <c r="C383" s="5"/>
-      <c r="D383" s="5"/>
-      <c r="E383" s="5"/>
-      <c r="H383" s="5"/>
-      <c r="I383" s="5"/>
-      <c r="J383" s="5"/>
-      <c r="K383" s="5"/>
-      <c r="L383" s="5"/>
-      <c r="M383" s="6"/>
-      <c r="N383" s="5"/>
-      <c r="O383" s="5"/>
-      <c r="P383" s="5"/>
-      <c r="Q383" s="5"/>
-      <c r="R383" s="5"/>
-      <c r="S383" s="5"/>
-      <c r="T383" s="5"/>
-      <c r="U383" s="5"/>
-      <c r="V383" s="1"/>
-      <c r="W383" s="7"/>
-    </row>
-    <row r="384" spans="2:23">
-      <c r="B384" s="5"/>
-      <c r="C384" s="5"/>
-      <c r="D384" s="5"/>
-      <c r="E384" s="5"/>
-      <c r="H384" s="5"/>
-      <c r="I384" s="5"/>
-      <c r="J384" s="5"/>
-      <c r="K384" s="5"/>
-      <c r="L384" s="5"/>
-      <c r="M384" s="6"/>
-      <c r="N384" s="5"/>
-      <c r="O384" s="5"/>
-      <c r="P384" s="5"/>
-      <c r="Q384" s="5"/>
-      <c r="R384" s="5"/>
-      <c r="S384" s="5"/>
-      <c r="T384" s="5"/>
-      <c r="U384" s="5"/>
-      <c r="V384" s="1"/>
-      <c r="W384" s="7"/>
-    </row>
-    <row r="385" spans="2:23">
-      <c r="B385" s="5"/>
-      <c r="C385" s="5"/>
-      <c r="D385" s="5"/>
-      <c r="E385" s="5"/>
-      <c r="H385" s="5"/>
-      <c r="I385" s="5"/>
-      <c r="J385" s="5"/>
-      <c r="K385" s="5"/>
-      <c r="L385" s="5"/>
-      <c r="M385" s="6"/>
-      <c r="N385" s="5"/>
-      <c r="O385" s="5"/>
-      <c r="P385" s="5"/>
-      <c r="Q385" s="5"/>
-      <c r="R385" s="5"/>
-      <c r="S385" s="5"/>
-      <c r="T385" s="5"/>
-      <c r="U385" s="5"/>
-      <c r="V385" s="1"/>
-      <c r="W385" s="7"/>
-    </row>
-    <row r="386" spans="2:23">
-      <c r="B386" s="5"/>
-      <c r="C386" s="5"/>
-      <c r="D386" s="5"/>
-      <c r="E386" s="5"/>
-      <c r="H386" s="5"/>
-      <c r="I386" s="5"/>
-      <c r="J386" s="5"/>
-      <c r="K386" s="5"/>
-      <c r="L386" s="5"/>
-      <c r="M386" s="6"/>
-      <c r="N386" s="5"/>
-      <c r="O386" s="5"/>
-      <c r="P386" s="5"/>
-      <c r="Q386" s="5"/>
-      <c r="R386" s="5"/>
-      <c r="S386" s="5"/>
-      <c r="T386" s="5"/>
-      <c r="U386" s="5"/>
-      <c r="V386" s="1"/>
-      <c r="W386" s="7"/>
-    </row>
-    <row r="387" spans="2:23">
-      <c r="B387" s="5"/>
-      <c r="C387" s="5"/>
-      <c r="D387" s="5"/>
-      <c r="E387" s="5"/>
-      <c r="H387" s="5"/>
-      <c r="I387" s="5"/>
-      <c r="J387" s="5"/>
-      <c r="K387" s="5"/>
-      <c r="L387" s="5"/>
-      <c r="M387" s="6"/>
-      <c r="N387" s="5"/>
-      <c r="O387" s="5"/>
-      <c r="P387" s="5"/>
-      <c r="Q387" s="5"/>
-      <c r="R387" s="5"/>
-      <c r="S387" s="5"/>
-      <c r="T387" s="5"/>
-      <c r="U387" s="5"/>
-      <c r="V387" s="1"/>
-      <c r="W387" s="7"/>
-    </row>
-    <row r="388" spans="2:23">
-      <c r="B388" s="5"/>
-      <c r="C388" s="5"/>
-      <c r="D388" s="5"/>
-      <c r="E388" s="5"/>
-      <c r="H388" s="5"/>
-      <c r="I388" s="5"/>
-      <c r="J388" s="5"/>
-      <c r="K388" s="5"/>
-      <c r="L388" s="5"/>
-      <c r="M388" s="6"/>
-      <c r="N388" s="5"/>
-      <c r="O388" s="5"/>
-      <c r="P388" s="5"/>
-      <c r="Q388" s="5"/>
-      <c r="R388" s="5"/>
-      <c r="S388" s="5"/>
-      <c r="T388" s="5"/>
-      <c r="U388" s="5"/>
-      <c r="V388" s="5"/>
-      <c r="W388" s="7"/>
-    </row>
-    <row r="389" spans="2:23">
-      <c r="B389" s="5"/>
-      <c r="C389" s="5"/>
-      <c r="D389" s="5"/>
-      <c r="E389" s="5"/>
-      <c r="H389" s="5"/>
-      <c r="I389" s="5"/>
-      <c r="J389" s="5"/>
-      <c r="K389" s="5"/>
-      <c r="L389" s="5"/>
-      <c r="M389" s="6"/>
-      <c r="N389" s="5"/>
-      <c r="O389" s="5"/>
-      <c r="P389" s="5"/>
-      <c r="Q389" s="5"/>
-      <c r="R389" s="5"/>
-      <c r="S389" s="5"/>
-      <c r="T389" s="5"/>
-      <c r="U389" s="5"/>
-      <c r="V389" s="5"/>
-      <c r="W389" s="7"/>
-    </row>
-    <row r="390" spans="2:23">
-      <c r="B390" s="5"/>
-      <c r="C390" s="5"/>
-      <c r="D390" s="5"/>
-      <c r="E390" s="5"/>
-      <c r="H390" s="5"/>
-      <c r="I390" s="5"/>
-      <c r="J390" s="5"/>
-      <c r="K390" s="5"/>
-      <c r="L390" s="5"/>
-      <c r="M390" s="6"/>
-      <c r="N390" s="5"/>
-      <c r="O390" s="5"/>
-      <c r="P390" s="5"/>
-      <c r="Q390" s="5"/>
-      <c r="R390" s="5"/>
-      <c r="S390" s="5"/>
-      <c r="T390" s="5"/>
-      <c r="U390" s="5"/>
-      <c r="V390" s="5"/>
-      <c r="W390" s="7"/>
-    </row>
-    <row r="391" spans="2:23">
-      <c r="B391" s="5"/>
-      <c r="C391" s="5"/>
-      <c r="D391" s="5"/>
-      <c r="E391" s="5"/>
-      <c r="H391" s="5"/>
-      <c r="I391" s="5"/>
-      <c r="J391" s="5"/>
-      <c r="K391" s="5"/>
-      <c r="L391" s="5"/>
-      <c r="M391" s="6"/>
-      <c r="N391" s="5"/>
-      <c r="O391" s="5"/>
-      <c r="P391" s="5"/>
-      <c r="Q391" s="5"/>
-      <c r="R391" s="5"/>
-      <c r="S391" s="5"/>
-      <c r="T391" s="5"/>
-      <c r="U391" s="5"/>
-      <c r="V391" s="5"/>
-      <c r="W391" s="7"/>
-    </row>
-    <row r="392" spans="2:23">
-      <c r="B392" s="5"/>
-      <c r="C392" s="5"/>
-      <c r="D392" s="5"/>
-      <c r="E392" s="5"/>
-      <c r="H392" s="5"/>
-      <c r="I392" s="5"/>
-      <c r="J392" s="5"/>
-      <c r="K392" s="5"/>
-      <c r="L392" s="5"/>
-      <c r="M392" s="6"/>
-      <c r="N392" s="5"/>
-      <c r="O392" s="5"/>
-      <c r="P392" s="5"/>
-      <c r="Q392" s="5"/>
-      <c r="R392" s="5"/>
-      <c r="S392" s="5"/>
-      <c r="T392" s="5"/>
-      <c r="U392" s="5"/>
-      <c r="V392" s="1"/>
-      <c r="W392" s="7"/>
-    </row>
-    <row r="393" spans="2:23">
-      <c r="B393" s="5"/>
-      <c r="C393" s="5"/>
-      <c r="D393" s="5"/>
-      <c r="E393" s="5"/>
-      <c r="H393" s="5"/>
-      <c r="I393" s="5"/>
-      <c r="J393" s="5"/>
-      <c r="K393" s="5"/>
-      <c r="L393" s="5"/>
-      <c r="M393" s="6"/>
-      <c r="N393" s="5"/>
-      <c r="O393" s="5"/>
-      <c r="P393" s="5"/>
-      <c r="Q393" s="5"/>
-      <c r="R393" s="5"/>
-      <c r="S393" s="5"/>
-      <c r="T393" s="5"/>
-      <c r="U393" s="5"/>
-      <c r="V393" s="1"/>
-      <c r="W393" s="7"/>
-    </row>
-    <row r="394" spans="2:23">
-      <c r="B394" s="5"/>
-      <c r="C394" s="5"/>
-      <c r="D394" s="5"/>
-      <c r="E394" s="5"/>
-      <c r="H394" s="5"/>
-      <c r="I394" s="5"/>
-      <c r="J394" s="5"/>
-      <c r="K394" s="5"/>
-      <c r="L394" s="5"/>
-      <c r="M394" s="6"/>
-      <c r="N394" s="5"/>
-      <c r="O394" s="5"/>
-      <c r="P394" s="5"/>
-      <c r="Q394" s="5"/>
-      <c r="R394" s="5"/>
-      <c r="S394" s="5"/>
-      <c r="T394" s="5"/>
-      <c r="U394" s="5"/>
-      <c r="V394" s="5"/>
-      <c r="W394" s="7"/>
-    </row>
-    <row r="395" spans="2:23">
-      <c r="B395" s="5"/>
-      <c r="C395" s="5"/>
-      <c r="D395" s="5"/>
-      <c r="E395" s="5"/>
-      <c r="H395" s="5"/>
-      <c r="I395" s="5"/>
-      <c r="J395" s="5"/>
-      <c r="K395" s="5"/>
-      <c r="L395" s="5"/>
-      <c r="M395" s="6"/>
-      <c r="N395" s="5"/>
-      <c r="O395" s="5"/>
-      <c r="P395" s="5"/>
-      <c r="Q395" s="5"/>
-      <c r="R395" s="5"/>
-      <c r="S395" s="5"/>
-      <c r="T395" s="5"/>
-      <c r="U395" s="5"/>
-      <c r="V395" s="5"/>
-      <c r="W395" s="7"/>
-    </row>
-    <row r="396" spans="2:23">
-      <c r="B396" s="5"/>
-      <c r="C396" s="5"/>
-      <c r="D396" s="5"/>
-      <c r="E396" s="5"/>
-      <c r="H396" s="5"/>
-      <c r="I396" s="5"/>
-      <c r="J396" s="5"/>
-      <c r="K396" s="5"/>
-      <c r="L396" s="5"/>
-      <c r="M396" s="6"/>
-      <c r="N396" s="5"/>
-      <c r="O396" s="5"/>
-      <c r="P396" s="5"/>
-      <c r="Q396" s="5"/>
-      <c r="R396" s="5"/>
-      <c r="S396" s="5"/>
-      <c r="T396" s="5"/>
-      <c r="U396" s="5"/>
-      <c r="V396" s="1"/>
-      <c r="W396" s="7"/>
-    </row>
-    <row r="397" spans="2:23">
-      <c r="B397" s="5"/>
-      <c r="C397" s="5"/>
-      <c r="D397" s="5"/>
-      <c r="E397" s="5"/>
-      <c r="H397" s="5"/>
-      <c r="I397" s="5"/>
-      <c r="J397" s="5"/>
-      <c r="K397" s="5"/>
-      <c r="L397" s="5"/>
-      <c r="M397" s="6"/>
-      <c r="N397" s="5"/>
-      <c r="O397" s="5"/>
-      <c r="P397" s="5"/>
-      <c r="Q397" s="5"/>
-      <c r="R397" s="5"/>
-      <c r="S397" s="5"/>
-      <c r="T397" s="5"/>
-      <c r="U397" s="5"/>
-      <c r="V397" s="1"/>
-      <c r="W397" s="7"/>
-    </row>
-    <row r="398" spans="2:23">
-      <c r="B398" s="5"/>
-      <c r="C398" s="5"/>
-      <c r="D398" s="5"/>
-      <c r="E398" s="5"/>
-      <c r="H398" s="5"/>
-      <c r="I398" s="5"/>
-      <c r="J398" s="5"/>
-      <c r="K398" s="5"/>
-      <c r="L398" s="5"/>
-      <c r="M398" s="6"/>
-      <c r="N398" s="5"/>
-      <c r="O398" s="5"/>
-      <c r="P398" s="5"/>
-      <c r="Q398" s="5"/>
-      <c r="R398" s="5"/>
-      <c r="S398" s="5"/>
-      <c r="T398" s="5"/>
-      <c r="U398" s="5"/>
-      <c r="V398" s="5"/>
-      <c r="W398" s="7"/>
-    </row>
-    <row r="399" spans="2:23">
-      <c r="B399" s="5"/>
-      <c r="C399" s="5"/>
-      <c r="D399" s="5"/>
-      <c r="E399" s="5"/>
-      <c r="H399" s="5"/>
-      <c r="I399" s="5"/>
-      <c r="J399" s="5"/>
-      <c r="K399" s="5"/>
-      <c r="L399" s="5"/>
-      <c r="M399" s="6"/>
-      <c r="N399" s="5"/>
-      <c r="O399" s="5"/>
-      <c r="P399" s="5"/>
-      <c r="Q399" s="5"/>
-      <c r="R399" s="5"/>
-      <c r="S399" s="5"/>
-      <c r="T399" s="5"/>
-      <c r="U399" s="5"/>
-      <c r="V399" s="5"/>
-      <c r="W399" s="7"/>
-    </row>
-    <row r="400" spans="2:23">
-      <c r="B400" s="5"/>
-      <c r="C400" s="5"/>
-      <c r="D400" s="5"/>
-      <c r="E400" s="5"/>
-      <c r="H400" s="5"/>
-      <c r="I400" s="5"/>
-      <c r="J400" s="5"/>
-      <c r="K400" s="5"/>
-      <c r="L400" s="5"/>
-      <c r="M400" s="6"/>
-      <c r="N400" s="5"/>
-      <c r="O400" s="5"/>
-      <c r="P400" s="5"/>
-      <c r="Q400" s="5"/>
-      <c r="R400" s="5"/>
-      <c r="S400" s="5"/>
-      <c r="T400" s="5"/>
-      <c r="U400" s="5"/>
-      <c r="V400" s="5"/>
-      <c r="W400" s="7"/>
-    </row>
-    <row r="401" spans="1:23">
-      <c r="B401" s="5"/>
-      <c r="C401" s="5"/>
-      <c r="D401" s="5"/>
-      <c r="E401" s="5"/>
-      <c r="H401" s="5"/>
-      <c r="I401" s="5"/>
-      <c r="J401" s="5"/>
-      <c r="K401" s="5"/>
-      <c r="L401" s="5"/>
-      <c r="M401" s="6"/>
-      <c r="N401" s="5"/>
-      <c r="O401" s="5"/>
-      <c r="P401" s="5"/>
-      <c r="Q401" s="5"/>
-      <c r="R401" s="5"/>
-      <c r="S401" s="5"/>
-      <c r="T401" s="5"/>
-      <c r="U401" s="5"/>
-      <c r="V401" s="5"/>
-      <c r="W401" s="7"/>
-    </row>
-    <row r="402" spans="1:23">
-      <c r="B402" s="5"/>
-      <c r="C402" s="5"/>
-      <c r="D402" s="5"/>
-      <c r="E402" s="5"/>
-      <c r="H402" s="5"/>
-      <c r="I402" s="5"/>
-      <c r="J402" s="5"/>
-      <c r="K402" s="5"/>
-      <c r="L402" s="5"/>
-      <c r="M402" s="6"/>
-      <c r="N402" s="5"/>
-      <c r="O402" s="5"/>
-      <c r="P402" s="5"/>
-      <c r="Q402" s="5"/>
-      <c r="R402" s="5"/>
-      <c r="S402" s="5"/>
-      <c r="T402" s="5"/>
-      <c r="U402" s="5"/>
-      <c r="V402" s="5"/>
-      <c r="W402" s="7"/>
-    </row>
-    <row r="403" spans="1:23">
-      <c r="B403" s="5"/>
-      <c r="C403" s="5"/>
-      <c r="D403" s="5"/>
-      <c r="E403" s="5"/>
-      <c r="H403" s="5"/>
-      <c r="I403" s="5"/>
-      <c r="J403" s="5"/>
-      <c r="K403" s="5"/>
-      <c r="L403" s="5"/>
-      <c r="M403" s="6"/>
-      <c r="N403" s="5"/>
-      <c r="O403" s="5"/>
-      <c r="P403" s="5"/>
-      <c r="Q403" s="5"/>
-      <c r="R403" s="5"/>
-      <c r="S403" s="5"/>
-      <c r="T403" s="5"/>
-      <c r="U403" s="5"/>
-      <c r="V403" s="5"/>
-      <c r="W403" s="7"/>
-    </row>
-    <row r="404" spans="1:23">
-      <c r="B404" s="5"/>
-      <c r="C404" s="5"/>
-      <c r="D404" s="5"/>
-      <c r="E404" s="5"/>
-      <c r="H404" s="5"/>
-      <c r="I404" s="5"/>
-      <c r="J404" s="5"/>
-      <c r="K404" s="5"/>
-      <c r="L404" s="5"/>
-      <c r="M404" s="6"/>
-      <c r="N404" s="5"/>
-      <c r="O404" s="5"/>
-      <c r="P404" s="5"/>
-      <c r="Q404" s="5"/>
-      <c r="R404" s="5"/>
-      <c r="S404" s="5"/>
-      <c r="T404" s="5"/>
-      <c r="U404" s="5"/>
-      <c r="V404" s="5"/>
-      <c r="W404" s="7"/>
-    </row>
-    <row r="405" spans="1:23">
-      <c r="B405" s="5"/>
-      <c r="C405" s="5"/>
-      <c r="D405" s="5"/>
-      <c r="E405" s="5"/>
-      <c r="H405" s="5"/>
-      <c r="I405" s="5"/>
-      <c r="J405" s="5"/>
-      <c r="K405" s="5"/>
-      <c r="L405" s="5"/>
-      <c r="M405" s="6"/>
-      <c r="N405" s="5"/>
-      <c r="O405" s="5"/>
-      <c r="P405" s="5"/>
-      <c r="Q405" s="5"/>
-      <c r="R405" s="5"/>
-      <c r="S405" s="5"/>
-      <c r="T405" s="5"/>
-      <c r="U405" s="5"/>
-      <c r="V405" s="5"/>
-      <c r="W405" s="7"/>
-    </row>
-    <row r="406" spans="1:23">
-      <c r="B406" s="5"/>
-      <c r="C406" s="5"/>
-      <c r="D406" s="5"/>
-      <c r="E406" s="5"/>
-      <c r="H406" s="5"/>
-      <c r="I406" s="5"/>
-      <c r="J406" s="5"/>
-      <c r="K406" s="5"/>
-      <c r="L406" s="5"/>
-      <c r="M406" s="6"/>
-      <c r="N406" s="5"/>
-      <c r="O406" s="5"/>
-      <c r="P406" s="5"/>
-      <c r="Q406" s="5"/>
-      <c r="R406" s="5"/>
-      <c r="S406" s="5"/>
-      <c r="T406" s="5"/>
-      <c r="U406" s="5"/>
-      <c r="V406" s="5"/>
-      <c r="W406" s="7"/>
-    </row>
-    <row r="407" spans="1:23">
-      <c r="B407" s="5"/>
-      <c r="C407" s="5"/>
-      <c r="D407" s="5"/>
-      <c r="E407" s="5"/>
-      <c r="H407" s="5"/>
-      <c r="I407" s="5"/>
-      <c r="J407" s="5"/>
-      <c r="K407" s="5"/>
-      <c r="L407" s="5"/>
-      <c r="M407" s="6"/>
-      <c r="N407" s="5"/>
-      <c r="O407" s="5"/>
-      <c r="P407" s="5"/>
-      <c r="Q407" s="5"/>
-      <c r="R407" s="5"/>
-      <c r="S407" s="5"/>
-      <c r="T407" s="5"/>
-      <c r="U407" s="5"/>
-      <c r="V407" s="5"/>
-      <c r="W407" s="7"/>
-    </row>
-    <row r="408" spans="1:23">
-      <c r="B408" s="5"/>
-      <c r="C408" s="5"/>
-      <c r="D408" s="5"/>
-      <c r="E408" s="5"/>
-      <c r="H408" s="5"/>
-      <c r="I408" s="5"/>
-      <c r="J408" s="5"/>
-      <c r="K408" s="5"/>
-      <c r="L408" s="5"/>
-      <c r="M408" s="6"/>
-      <c r="N408" s="5"/>
-      <c r="O408" s="5"/>
-      <c r="P408" s="5"/>
-      <c r="Q408" s="5"/>
-      <c r="R408" s="5"/>
-      <c r="S408" s="5"/>
-      <c r="T408" s="5"/>
-      <c r="U408" s="5"/>
-      <c r="V408" s="5"/>
-      <c r="W408" s="7"/>
-    </row>
-    <row r="409" spans="1:23">
-      <c r="B409" s="5"/>
-      <c r="C409" s="5"/>
-      <c r="D409" s="5"/>
-      <c r="E409" s="5"/>
-      <c r="H409" s="5"/>
-      <c r="I409" s="5"/>
-      <c r="J409" s="5"/>
-      <c r="K409" s="5"/>
-      <c r="L409" s="5"/>
-      <c r="M409" s="6"/>
-      <c r="N409" s="5"/>
-      <c r="O409" s="5"/>
-      <c r="P409" s="5"/>
-      <c r="Q409" s="5"/>
-      <c r="R409" s="5"/>
-      <c r="S409" s="5"/>
-      <c r="T409" s="5"/>
-      <c r="U409" s="5"/>
-      <c r="V409" s="5"/>
-      <c r="W409" s="7"/>
-    </row>
-    <row r="410" spans="1:23">
-      <c r="B410" s="5"/>
-      <c r="C410" s="5"/>
-      <c r="D410" s="5"/>
-      <c r="E410" s="5"/>
-      <c r="H410" s="5"/>
-      <c r="I410" s="5"/>
-      <c r="J410" s="5"/>
-      <c r="K410" s="5"/>
-      <c r="L410" s="5"/>
-      <c r="M410" s="6"/>
-      <c r="N410" s="5"/>
-      <c r="O410" s="5"/>
-      <c r="P410" s="5"/>
-      <c r="Q410" s="5"/>
-      <c r="R410" s="5"/>
-      <c r="S410" s="5"/>
-      <c r="T410" s="5"/>
-      <c r="U410" s="5"/>
-      <c r="V410" s="5"/>
-      <c r="W410" s="7"/>
-    </row>
-    <row r="411" spans="1:23">
-      <c r="A411" s="8"/>
-      <c r="B411" s="5"/>
-      <c r="C411" s="5"/>
-      <c r="D411" s="5"/>
-      <c r="E411" s="5"/>
-      <c r="H411" s="5"/>
-      <c r="I411" s="5"/>
-      <c r="J411" s="5"/>
-      <c r="K411" s="5"/>
-      <c r="L411" s="5"/>
-      <c r="M411" s="6"/>
-      <c r="N411" s="5"/>
-      <c r="O411" s="5"/>
-      <c r="P411" s="5"/>
-      <c r="Q411" s="5"/>
-      <c r="R411" s="5"/>
-      <c r="S411" s="5"/>
-      <c r="T411" s="5"/>
-      <c r="U411" s="5"/>
-      <c r="V411" s="5"/>
-      <c r="W411" s="7"/>
-    </row>
-    <row r="412" spans="1:23">
-      <c r="B412" s="5"/>
-      <c r="C412" s="5"/>
-      <c r="D412" s="5"/>
-      <c r="E412" s="5"/>
-      <c r="H412" s="5"/>
-      <c r="I412" s="5"/>
-      <c r="J412" s="5"/>
-      <c r="K412" s="5"/>
-      <c r="L412" s="5"/>
-      <c r="M412" s="6"/>
-      <c r="N412" s="5"/>
-      <c r="O412" s="5"/>
-      <c r="P412" s="5"/>
-      <c r="Q412" s="5"/>
-      <c r="R412" s="5"/>
-      <c r="S412" s="5"/>
-      <c r="T412" s="5"/>
-      <c r="U412" s="5"/>
-      <c r="V412" s="5"/>
-      <c r="W412" s="7"/>
-    </row>
-    <row r="413" spans="1:23">
-      <c r="B413" s="5"/>
-      <c r="C413" s="5"/>
-      <c r="D413" s="5"/>
-      <c r="E413" s="5"/>
-      <c r="H413" s="5"/>
-      <c r="I413" s="5"/>
-      <c r="J413" s="5"/>
-      <c r="K413" s="5"/>
-      <c r="L413" s="5"/>
-      <c r="M413" s="6"/>
-      <c r="N413" s="5"/>
-      <c r="O413" s="5"/>
-      <c r="P413" s="5"/>
-      <c r="Q413" s="5"/>
-      <c r="R413" s="5"/>
-      <c r="S413" s="5"/>
-      <c r="T413" s="5"/>
-      <c r="U413" s="5"/>
-      <c r="V413" s="5"/>
-      <c r="W413" s="7"/>
-    </row>
-    <row r="414" spans="1:23">
-      <c r="B414" s="5"/>
-      <c r="C414" s="5"/>
-      <c r="D414" s="5"/>
-      <c r="E414" s="5"/>
-      <c r="H414" s="5"/>
-      <c r="I414" s="5"/>
-      <c r="J414" s="5"/>
-      <c r="K414" s="5"/>
-      <c r="L414" s="5"/>
-      <c r="M414" s="6"/>
-      <c r="N414" s="5"/>
-      <c r="O414" s="5"/>
-      <c r="P414" s="5"/>
-      <c r="Q414" s="5"/>
-      <c r="R414" s="5"/>
-      <c r="S414" s="5"/>
-      <c r="T414" s="5"/>
-      <c r="U414" s="5"/>
-      <c r="V414" s="1"/>
-      <c r="W414" s="7"/>
-    </row>
-    <row r="415" spans="1:23">
-      <c r="B415" s="5"/>
-      <c r="C415" s="5"/>
-      <c r="D415" s="5"/>
-      <c r="E415" s="5"/>
-      <c r="H415" s="5"/>
-      <c r="I415" s="5"/>
-      <c r="J415" s="5"/>
-      <c r="K415" s="5"/>
-      <c r="L415" s="5"/>
-      <c r="M415" s="6"/>
-      <c r="N415" s="5"/>
-      <c r="O415" s="5"/>
-      <c r="P415" s="5"/>
-      <c r="Q415" s="5"/>
-      <c r="R415" s="5"/>
-      <c r="S415" s="5"/>
-      <c r="T415" s="5"/>
-      <c r="U415" s="5"/>
-      <c r="V415" s="1"/>
-      <c r="W415" s="7"/>
-    </row>
-    <row r="416" spans="1:23">
-      <c r="B416" s="5"/>
-      <c r="C416" s="5"/>
-      <c r="D416" s="5"/>
-      <c r="E416" s="5"/>
-      <c r="H416" s="5"/>
-      <c r="I416" s="5"/>
-      <c r="J416" s="5"/>
-      <c r="K416" s="5"/>
-      <c r="L416" s="5"/>
-      <c r="M416" s="6"/>
-      <c r="N416" s="5"/>
-      <c r="O416" s="5"/>
-      <c r="P416" s="5"/>
-      <c r="Q416" s="5"/>
-      <c r="R416" s="5"/>
-      <c r="S416" s="5"/>
-      <c r="T416" s="5"/>
-      <c r="U416" s="5"/>
-      <c r="V416" s="5"/>
-      <c r="W416" s="7"/>
-    </row>
-    <row r="417" spans="1:23">
-      <c r="B417" s="5"/>
-      <c r="C417" s="5"/>
-      <c r="D417" s="5"/>
-      <c r="E417" s="5"/>
-      <c r="H417" s="5"/>
-      <c r="I417" s="5"/>
-      <c r="J417" s="5"/>
-      <c r="K417" s="5"/>
-      <c r="L417" s="5"/>
-      <c r="M417" s="6"/>
-      <c r="N417" s="5"/>
-      <c r="O417" s="5"/>
-      <c r="P417" s="5"/>
-      <c r="Q417" s="5"/>
-      <c r="R417" s="5"/>
-      <c r="S417" s="5"/>
-      <c r="T417" s="5"/>
-      <c r="U417" s="5"/>
-      <c r="V417" s="5"/>
-      <c r="W417" s="7"/>
-    </row>
-    <row r="418" spans="1:23">
-      <c r="A418" s="3"/>
-      <c r="B418" s="5"/>
-      <c r="C418" s="5"/>
-      <c r="D418" s="5"/>
-      <c r="E418" s="5"/>
-      <c r="H418" s="5"/>
-      <c r="I418" s="5"/>
-      <c r="J418" s="5"/>
-      <c r="K418" s="5"/>
-      <c r="L418" s="5"/>
-      <c r="M418" s="6"/>
-      <c r="N418" s="5"/>
-      <c r="O418" s="5"/>
-      <c r="P418" s="5"/>
-      <c r="Q418" s="5"/>
-      <c r="R418" s="5"/>
-      <c r="S418" s="5"/>
-      <c r="T418" s="5"/>
-      <c r="U418" s="5"/>
-      <c r="V418" s="5"/>
-      <c r="W418" s="7"/>
-    </row>
-    <row r="419" spans="1:23">
-      <c r="A419" s="8"/>
-      <c r="B419" s="5"/>
-      <c r="C419" s="5"/>
-      <c r="D419" s="5"/>
-      <c r="E419" s="5"/>
-      <c r="H419" s="5"/>
-      <c r="I419" s="5"/>
-      <c r="J419" s="5"/>
-      <c r="K419" s="5"/>
-      <c r="L419" s="5"/>
-      <c r="M419" s="6"/>
-      <c r="N419" s="5"/>
-      <c r="O419" s="5"/>
-      <c r="P419" s="5"/>
-      <c r="Q419" s="5"/>
-      <c r="R419" s="5"/>
-      <c r="S419" s="5"/>
-      <c r="T419" s="5"/>
-      <c r="U419" s="5"/>
-      <c r="V419" s="5"/>
-      <c r="W419" s="7"/>
-    </row>
-    <row r="420" spans="1:23">
-      <c r="B420" s="5"/>
-      <c r="C420" s="5"/>
-      <c r="D420" s="5"/>
-      <c r="E420" s="5"/>
-      <c r="H420" s="5"/>
-      <c r="I420" s="5"/>
-      <c r="J420" s="5"/>
-      <c r="K420" s="5"/>
-      <c r="L420" s="5"/>
-      <c r="M420" s="6"/>
-      <c r="N420" s="5"/>
-      <c r="O420" s="5"/>
-      <c r="P420" s="5"/>
-      <c r="Q420" s="5"/>
-      <c r="R420" s="5"/>
-      <c r="S420" s="5"/>
-      <c r="T420" s="5"/>
-      <c r="U420" s="5"/>
-      <c r="V420" s="5"/>
-      <c r="W420" s="7"/>
-    </row>
-    <row r="421" spans="1:23">
-      <c r="B421" s="5"/>
-      <c r="C421" s="5"/>
-      <c r="D421" s="5"/>
-      <c r="E421" s="5"/>
-      <c r="H421" s="5"/>
-      <c r="I421" s="5"/>
-      <c r="J421" s="5"/>
-      <c r="K421" s="5"/>
-      <c r="L421" s="5"/>
-      <c r="M421" s="6"/>
-      <c r="N421" s="5"/>
-      <c r="O421" s="5"/>
-      <c r="P421" s="5"/>
-      <c r="Q421" s="5"/>
-      <c r="R421" s="5"/>
-      <c r="S421" s="5"/>
-      <c r="T421" s="5"/>
-      <c r="U421" s="5"/>
-      <c r="V421" s="5"/>
-      <c r="W421" s="7"/>
-    </row>
-    <row r="422" spans="1:23">
-      <c r="B422" s="5"/>
-      <c r="C422" s="5"/>
-      <c r="D422" s="5"/>
-      <c r="E422" s="5"/>
-      <c r="H422" s="5"/>
-      <c r="I422" s="5"/>
-      <c r="J422" s="5"/>
-      <c r="K422" s="5"/>
-      <c r="L422" s="5"/>
-      <c r="M422" s="6"/>
-      <c r="N422" s="5"/>
-      <c r="O422" s="5"/>
-      <c r="P422" s="5"/>
-      <c r="Q422" s="5"/>
-      <c r="R422" s="5"/>
-      <c r="S422" s="5"/>
-      <c r="T422" s="5"/>
-      <c r="U422" s="5"/>
-      <c r="V422" s="1"/>
-      <c r="W422" s="7"/>
-    </row>
-    <row r="423" spans="1:23">
-      <c r="B423" s="5"/>
-      <c r="C423" s="5"/>
-      <c r="D423" s="5"/>
-      <c r="E423" s="5"/>
-      <c r="H423" s="5"/>
-      <c r="I423" s="5"/>
-      <c r="J423" s="5"/>
-      <c r="K423" s="5"/>
-      <c r="L423" s="5"/>
-      <c r="M423" s="6"/>
-      <c r="N423" s="5"/>
-      <c r="O423" s="5"/>
-      <c r="P423" s="5"/>
-      <c r="Q423" s="5"/>
-      <c r="R423" s="5"/>
-      <c r="S423" s="5"/>
-      <c r="T423" s="5"/>
-      <c r="U423" s="5"/>
-      <c r="V423" s="1"/>
-      <c r="W423" s="7"/>
-    </row>
-    <row r="424" spans="1:23">
-      <c r="B424" s="5"/>
-      <c r="C424" s="5"/>
-      <c r="D424" s="5"/>
-      <c r="E424" s="5"/>
-      <c r="H424" s="5"/>
-      <c r="I424" s="5"/>
-      <c r="J424" s="5"/>
-      <c r="K424" s="5"/>
-      <c r="L424" s="5"/>
-      <c r="M424" s="6"/>
-      <c r="N424" s="5"/>
-      <c r="O424" s="5"/>
-      <c r="P424" s="5"/>
-      <c r="Q424" s="5"/>
-      <c r="R424" s="5"/>
-      <c r="S424" s="5"/>
-      <c r="T424" s="5"/>
-      <c r="U424" s="5"/>
-      <c r="V424" s="5"/>
-      <c r="W424" s="7"/>
-    </row>
-    <row r="425" spans="1:23">
-      <c r="B425" s="5"/>
-      <c r="C425" s="5"/>
-      <c r="D425" s="5"/>
-      <c r="E425" s="5"/>
-      <c r="H425" s="5"/>
-      <c r="I425" s="5"/>
-      <c r="J425" s="5"/>
-      <c r="K425" s="5"/>
-      <c r="L425" s="5"/>
-      <c r="M425" s="6"/>
-      <c r="N425" s="5"/>
-      <c r="O425" s="5"/>
-      <c r="P425" s="5"/>
-      <c r="Q425" s="5"/>
-      <c r="R425" s="5"/>
-      <c r="S425" s="5"/>
-      <c r="T425" s="5"/>
-      <c r="U425" s="5"/>
-      <c r="V425" s="5"/>
-      <c r="W425" s="7"/>
-    </row>
-    <row r="426" spans="1:23">
-      <c r="B426" s="5"/>
-      <c r="C426" s="5"/>
-      <c r="D426" s="5"/>
-      <c r="E426" s="5"/>
-      <c r="H426" s="5"/>
-      <c r="I426" s="5"/>
-      <c r="J426" s="5"/>
-      <c r="K426" s="5"/>
-      <c r="L426" s="5"/>
-      <c r="M426" s="6"/>
-      <c r="N426" s="5"/>
-      <c r="O426" s="5"/>
-      <c r="P426" s="5"/>
-      <c r="Q426" s="5"/>
-      <c r="R426" s="5"/>
-      <c r="S426" s="5"/>
-      <c r="T426" s="5"/>
-      <c r="U426" s="5"/>
-      <c r="V426" s="1"/>
-      <c r="W426" s="7"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
